--- a/dsa sheet(AutoRecovered).xlsx
+++ b/dsa sheet(AutoRecovered).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\DSA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040B2208-72FD-4CC8-8FF6-29439D6A95D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94CF697-29E7-4292-9E72-4352F8C89E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t xml:space="preserve">                                                                                                                       DSA COMPLETE SHEET</t>
   </si>
@@ -45,15 +45,6 @@
     <t>QUESTION LINK</t>
   </si>
   <si>
-    <t>METHOD 1</t>
-  </si>
-  <si>
-    <t>METHOD 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METHOD 3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">CODE </t>
   </si>
   <si>
@@ -72,12 +63,6 @@
     <t>String Matching (Two Pointer)</t>
   </si>
   <si>
-    <t>Pattern ko Trie</t>
-  </si>
-  <si>
-    <t>WHY CHILDREN[58]</t>
-  </si>
-  <si>
     <t>2) Palindrome Pairs</t>
   </si>
   <si>
@@ -102,9 +87,6 @@
     <t>Ordered Map ,, automatic sorted deta hai</t>
   </si>
   <si>
-    <t>Dono linked list ko hash</t>
-  </si>
-  <si>
     <t>3) Intersection of Two Linked lIst</t>
   </si>
   <si>
@@ -322,6 +304,9 @@
   </si>
   <si>
     <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Binary_Search/eko_spoj.cpp</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
   </si>
 </sst>
 </file>
@@ -617,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -631,9 +616,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1019,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7931DF3-A13D-441B-9EDF-DCE8E0B347A5}">
-  <dimension ref="A1:AM176"/>
+  <dimension ref="A1:AK176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="68" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,1810 +1013,1448 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="25.21875" customWidth="1"/>
     <col min="4" max="4" width="52.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:37" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-    </row>
-    <row r="2" spans="1:39" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+    </row>
+    <row r="2" spans="1:37" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="31"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="30"/>
       <c r="C6" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="31"/>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="30"/>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="31"/>
+      <c r="E7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="31"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="31"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="31"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="31"/>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="31"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="31"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="31"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="31"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="31"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="24"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="24"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="23"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="24"/>
+      <c r="E29" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="23"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="24"/>
+      <c r="E30" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="23"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="24"/>
+      <c r="E31" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="23"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="24"/>
+      <c r="E32" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="24"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="23"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="24"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="24"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="23"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="24"/>
+      <c r="E36" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="23"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="24"/>
+      <c r="E37" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="23"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="24"/>
+      <c r="E38" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="23"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="24"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="23"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="24"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="23"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="24"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="23"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="24"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="26"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="24"/>
+        <v>57</v>
+      </c>
+      <c r="B45" s="23"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="24"/>
+        <v>58</v>
+      </c>
+      <c r="B46" s="23"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="24"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="24"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="23"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="24"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="26"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="B50" s="23"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B51" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="B51" s="23"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B52" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="B52" s="23"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="B53" s="23"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
-      <c r="B54" s="24"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="24"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" s="23"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="24"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="B57" s="23"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E57" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="B58" s="23"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E58" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="24"/>
+        <v>66</v>
+      </c>
+      <c r="B59" s="23"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E59" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="24"/>
+        <v>67</v>
+      </c>
+      <c r="B60" s="23"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E60" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="B61" s="23"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
-      <c r="B62" s="24"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="17"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="16"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="19"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B66" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="B66" s="23"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
-      <c r="B67" s="24"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
-      <c r="B68" s="24"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
-      <c r="B69" s="24"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
-      <c r="B70" s="24"/>
+      <c r="B70" s="23"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
-      <c r="B71" s="24"/>
+      <c r="B71" s="23"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
-      <c r="B72" s="24"/>
+      <c r="B72" s="23"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
-      <c r="B73" s="24"/>
+      <c r="B73" s="23"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
-      <c r="B74" s="24"/>
+      <c r="B74" s="23"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
-      <c r="B75" s="24"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
-      <c r="B76" s="24"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
-      <c r="B77" s="24"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
-      <c r="B78" s="24"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
-      <c r="B79" s="24"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="25"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="4"/>
-      <c r="G114" s="4"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
-      <c r="F155" s="4"/>
-      <c r="G155" s="4"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
-      <c r="F156" s="4"/>
-      <c r="G156" s="4"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="4"/>
-      <c r="G157" s="4"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
-      <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
-      <c r="F169" s="4"/>
-      <c r="G169" s="4"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
-      <c r="G171" s="4"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2842,7 +2462,7 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A1:AK1"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="B14:B26"/>
     <mergeCell ref="A27:A28"/>
@@ -2851,7 +2471,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{984C5C56-3213-4275-BBDE-1B60976BA02C}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{1B93B70D-D580-41F7-A5DF-854FB7CE50E0}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{1B93B70D-D580-41F7-A5DF-854FB7CE50E0}"/>
     <hyperlink ref="C5" r:id="rId3" xr:uid="{FA0A6E2B-4325-4736-90CF-A96578E760F0}"/>
     <hyperlink ref="C14" r:id="rId4" xr:uid="{82CCEF64-C9D4-490A-8F3C-018822B8F94B}"/>
     <hyperlink ref="C15" r:id="rId5" xr:uid="{5E0EACF8-7C52-4799-B781-28925A9D5D03}"/>
@@ -2861,31 +2481,31 @@
     <hyperlink ref="C7" r:id="rId9" xr:uid="{285B6F33-9700-4E26-85CE-52ADA6FC8A6E}"/>
     <hyperlink ref="C6" r:id="rId10" xr:uid="{4706691B-1F6A-4C3F-A19F-626D7BB56954}"/>
     <hyperlink ref="C19" r:id="rId11" xr:uid="{53C7C5AB-9975-48A0-A1B5-495D189564E1}"/>
-    <hyperlink ref="G6" r:id="rId12" xr:uid="{7517EB6F-6699-4927-BC56-1C29FE5A4ACC}"/>
-    <hyperlink ref="G7" r:id="rId13" xr:uid="{F9FD688C-CE6E-470E-8341-84F0E1092C68}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{271DC26C-A043-42D6-BC0F-7F7E389DD599}"/>
-    <hyperlink ref="G15" r:id="rId15" xr:uid="{6552A7DB-EB84-4D54-A9BB-EDA31BE73E8B}"/>
-    <hyperlink ref="G17" r:id="rId16" xr:uid="{D9FFF8AA-777C-4977-9705-AAC1C65CD944}"/>
-    <hyperlink ref="G18" r:id="rId17" xr:uid="{F7E32BAE-4478-4D0B-8A0E-9389D2AF234E}"/>
-    <hyperlink ref="G19" r:id="rId18" xr:uid="{8CDCE78A-46BB-491B-B106-D66E21AE5CE4}"/>
-    <hyperlink ref="G16" r:id="rId19" xr:uid="{D0C8C1EF-5670-4C8B-BA32-D7C14910B376}"/>
-    <hyperlink ref="G29" r:id="rId20" xr:uid="{FFE0B60F-EF1E-4AAD-9151-F03F3033291B}"/>
-    <hyperlink ref="G30" r:id="rId21" xr:uid="{F6E3D832-8676-42B3-917A-36B9A32FFB20}"/>
-    <hyperlink ref="G31" r:id="rId22" xr:uid="{0BC70552-1672-4FAF-A2A6-71D02F4F89A1}"/>
-    <hyperlink ref="G32" r:id="rId23" xr:uid="{E9D5538C-6001-4B14-8E0F-81DFACF77163}"/>
-    <hyperlink ref="G36" r:id="rId24" xr:uid="{C63F5280-2A2B-4014-9F35-D625EB3E7A88}"/>
-    <hyperlink ref="G37" r:id="rId25" xr:uid="{FEFC6956-048E-47CD-8420-5EF1B521CE8B}"/>
-    <hyperlink ref="G38" r:id="rId26" xr:uid="{3AB08F89-4640-4B91-984F-2290A82BB149}"/>
-    <hyperlink ref="G45" r:id="rId27" xr:uid="{3F147BAF-D710-43D3-9797-E03604FD577F}"/>
-    <hyperlink ref="G46" r:id="rId28" xr:uid="{0B2723D8-ECC1-48E9-9639-26FAFFEA9BB3}"/>
-    <hyperlink ref="G50" r:id="rId29" xr:uid="{791C0A2E-B423-48BC-A0F2-2B177E2674A3}"/>
-    <hyperlink ref="G51" r:id="rId30" xr:uid="{59C32A30-E37B-4B04-986E-C38A58CB16B1}"/>
-    <hyperlink ref="G52" r:id="rId31" xr:uid="{D41452E6-EBD8-499B-81F1-55B2DD1BF93B}"/>
-    <hyperlink ref="G53" r:id="rId32" xr:uid="{DC13A196-BDA1-45A2-A29D-3C5AE09AB71D}"/>
-    <hyperlink ref="G57" r:id="rId33" xr:uid="{DDD8CD72-22A8-4094-B1FA-E68723D82670}"/>
-    <hyperlink ref="G58" r:id="rId34" xr:uid="{410498C3-A7BF-46BF-B344-24440510FCC9}"/>
-    <hyperlink ref="G59" r:id="rId35" xr:uid="{FC8493BD-6C4D-425A-AC07-BFE6B0BB7FBA}"/>
-    <hyperlink ref="G60" r:id="rId36" xr:uid="{98F8F230-51A6-4F1E-BA8C-ED8B2287441E}"/>
+    <hyperlink ref="E6" r:id="rId12" xr:uid="{7517EB6F-6699-4927-BC56-1C29FE5A4ACC}"/>
+    <hyperlink ref="E7" r:id="rId13" xr:uid="{F9FD688C-CE6E-470E-8341-84F0E1092C68}"/>
+    <hyperlink ref="E14" r:id="rId14" xr:uid="{271DC26C-A043-42D6-BC0F-7F7E389DD599}"/>
+    <hyperlink ref="E15" r:id="rId15" xr:uid="{6552A7DB-EB84-4D54-A9BB-EDA31BE73E8B}"/>
+    <hyperlink ref="E17" r:id="rId16" xr:uid="{D9FFF8AA-777C-4977-9705-AAC1C65CD944}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{F7E32BAE-4478-4D0B-8A0E-9389D2AF234E}"/>
+    <hyperlink ref="E19" r:id="rId18" xr:uid="{8CDCE78A-46BB-491B-B106-D66E21AE5CE4}"/>
+    <hyperlink ref="E16" r:id="rId19" xr:uid="{D0C8C1EF-5670-4C8B-BA32-D7C14910B376}"/>
+    <hyperlink ref="E29" r:id="rId20" xr:uid="{FFE0B60F-EF1E-4AAD-9151-F03F3033291B}"/>
+    <hyperlink ref="E30" r:id="rId21" xr:uid="{F6E3D832-8676-42B3-917A-36B9A32FFB20}"/>
+    <hyperlink ref="E31" r:id="rId22" xr:uid="{0BC70552-1672-4FAF-A2A6-71D02F4F89A1}"/>
+    <hyperlink ref="E32" r:id="rId23" xr:uid="{E9D5538C-6001-4B14-8E0F-81DFACF77163}"/>
+    <hyperlink ref="E36" r:id="rId24" xr:uid="{C63F5280-2A2B-4014-9F35-D625EB3E7A88}"/>
+    <hyperlink ref="E37" r:id="rId25" xr:uid="{FEFC6956-048E-47CD-8420-5EF1B521CE8B}"/>
+    <hyperlink ref="E38" r:id="rId26" xr:uid="{3AB08F89-4640-4B91-984F-2290A82BB149}"/>
+    <hyperlink ref="E45" r:id="rId27" xr:uid="{3F147BAF-D710-43D3-9797-E03604FD577F}"/>
+    <hyperlink ref="E46" r:id="rId28" xr:uid="{0B2723D8-ECC1-48E9-9639-26FAFFEA9BB3}"/>
+    <hyperlink ref="E50" r:id="rId29" xr:uid="{791C0A2E-B423-48BC-A0F2-2B177E2674A3}"/>
+    <hyperlink ref="E51" r:id="rId30" xr:uid="{59C32A30-E37B-4B04-986E-C38A58CB16B1}"/>
+    <hyperlink ref="E52" r:id="rId31" xr:uid="{D41452E6-EBD8-499B-81F1-55B2DD1BF93B}"/>
+    <hyperlink ref="E53" r:id="rId32" xr:uid="{DC13A196-BDA1-45A2-A29D-3C5AE09AB71D}"/>
+    <hyperlink ref="E57" r:id="rId33" xr:uid="{DDD8CD72-22A8-4094-B1FA-E68723D82670}"/>
+    <hyperlink ref="E58" r:id="rId34" xr:uid="{410498C3-A7BF-46BF-B344-24440510FCC9}"/>
+    <hyperlink ref="E59" r:id="rId35" xr:uid="{FC8493BD-6C4D-425A-AC07-BFE6B0BB7FBA}"/>
+    <hyperlink ref="E60" r:id="rId36" xr:uid="{98F8F230-51A6-4F1E-BA8C-ED8B2287441E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>

--- a/dsa sheet(AutoRecovered).xlsx
+++ b/dsa sheet(AutoRecovered).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\DSA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94CF697-29E7-4292-9E72-4352F8C89E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8E7425-CA6C-4747-9353-6C50C83F8D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
+    <workbookView xWindow="7380" yWindow="0" windowWidth="15756" windowHeight="12336" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t xml:space="preserve">                                                                                                                       DSA COMPLETE SHEET</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Basic Questions</t>
   </si>
   <si>
-    <t>1)</t>
-  </si>
-  <si>
     <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Binary_Search/binary_search_implementation.cpp</t>
   </si>
   <si>
@@ -307,6 +304,39 @@
   </si>
   <si>
     <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>1) Basics</t>
+  </si>
+  <si>
+    <t>2) Insert -&gt; Singly</t>
+  </si>
+  <si>
+    <t>3) Doubly</t>
+  </si>
+  <si>
+    <t>4) Middle LL</t>
+  </si>
+  <si>
+    <t>5) Reverse LL</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/basics.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/insertion.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/doubly.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/middle.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/reverse.cpp</t>
+  </si>
+  <si>
+    <t>6) K_Groups_Reverse</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7931DF3-A13D-441B-9EDF-DCE8E0B347A5}">
   <dimension ref="A1:AK176"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="102" workbookViewId="0">
       <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
@@ -1068,7 +1098,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
@@ -1338,7 +1368,7 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1349,7 +1379,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,7 +1390,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1371,7 +1401,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1405,7 +1435,7 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1416,7 +1446,7 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1427,7 +1457,7 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1488,7 +1518,7 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1499,7 +1529,7 @@
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1533,7 +1563,7 @@
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1544,7 +1574,7 @@
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1555,7 +1585,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1566,7 +1596,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1600,7 +1630,7 @@
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1611,7 +1641,7 @@
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1622,7 +1652,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1633,7 +1663,7 @@
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1679,40 +1709,58 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="E66" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
+      <c r="A67" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="B67" s="23"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
+      <c r="E67" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4"/>
+      <c r="A68" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="B68" s="23"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
+      <c r="E68" s="5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
+      <c r="A69" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="B69" s="23"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
+      <c r="E69" s="5" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4"/>
+      <c r="A70" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="B70" s="23"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="E70" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
@@ -1722,7 +1770,9 @@
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
+      <c r="A72" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="B72" s="23"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2506,8 +2556,13 @@
     <hyperlink ref="E58" r:id="rId34" xr:uid="{410498C3-A7BF-46BF-B344-24440510FCC9}"/>
     <hyperlink ref="E59" r:id="rId35" xr:uid="{FC8493BD-6C4D-425A-AC07-BFE6B0BB7FBA}"/>
     <hyperlink ref="E60" r:id="rId36" xr:uid="{98F8F230-51A6-4F1E-BA8C-ED8B2287441E}"/>
+    <hyperlink ref="E66" r:id="rId37" xr:uid="{8BB5B2D8-BA4E-45EB-A644-E3BBCDB7C5CB}"/>
+    <hyperlink ref="E67" r:id="rId38" xr:uid="{8E6F1CAA-429E-484A-B226-182D7971082A}"/>
+    <hyperlink ref="E68" r:id="rId39" xr:uid="{8D3FB8E2-189C-458F-86F5-58915816938A}"/>
+    <hyperlink ref="E69" r:id="rId40" xr:uid="{6BC2115B-C486-4209-A9F8-13E74AB95D32}"/>
+    <hyperlink ref="E70" r:id="rId41" xr:uid="{86506416-7E89-4C05-A3AF-2E6DBBA1BDBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/dsa sheet(AutoRecovered).xlsx
+++ b/dsa sheet(AutoRecovered).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\DSA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8E7425-CA6C-4747-9353-6C50C83F8D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784598E0-8E4D-4CD6-A887-FFA2FB93D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="0" windowWidth="15756" windowHeight="12336" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7931DF3-A13D-441B-9EDF-DCE8E0B347A5}">
   <dimension ref="A1:AK176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="102" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dsa sheet(AutoRecovered).xlsx
+++ b/dsa sheet(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\DSA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784598E0-8E4D-4CD6-A887-FFA2FB93D55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0088D5D5-70D7-4BC5-A7E2-8B612B0E8198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
   <si>
     <t xml:space="preserve">                                                                                                                       DSA COMPLETE SHEET</t>
   </si>
@@ -337,6 +337,237 @@
   </si>
   <si>
     <t>6) K_Groups_Reverse</t>
+  </si>
+  <si>
+    <t>7) Palindrome Linked Lists</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/LL_palindrome.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/k_groups_reverse.cpp</t>
+  </si>
+  <si>
+    <t>8) Merge Two Sorted List</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/merge_sorted_ll.cpp</t>
+  </si>
+  <si>
+    <t>9) Merge Between Zero</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/merge_between_zero.cpp</t>
+  </si>
+  <si>
+    <t>10) Sort zeros and ones</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/sort_zeros_ones.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/remove_loop.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/starting_point_loop.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/rotate_list.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/remove_duplicates_sortedll.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/min_max_critical.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/intersection_ll.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/flaten_ll.cpp</t>
+  </si>
+  <si>
+    <t>11) Detect Loop</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/detect_loop_fcd.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12) Remove Loop </t>
+  </si>
+  <si>
+    <t>13) Starting Point of Loop</t>
+  </si>
+  <si>
+    <t>14) Rotate List</t>
+  </si>
+  <si>
+    <t>15) Remove Duplicates from Sorted Linked List</t>
+  </si>
+  <si>
+    <t>16) LC 2058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17) Intersection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18) Intersection 2 </t>
+  </si>
+  <si>
+    <t>19) Flatten Linked List</t>
+  </si>
+  <si>
+    <t>20) Copy List with Random Pointer</t>
+  </si>
+  <si>
+    <t>21) Delete N nodes after M nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22) Add 2 Numbers </t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Linked_List/add_two_numbers.cpp</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/Basics.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Insert at Bottom </t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/insert_bottom.cpp</t>
+  </si>
+  <si>
+    <t>3) Reverse Stack</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/reverse.cpp</t>
+  </si>
+  <si>
+    <t>4) Middle Stack</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/middle.cpp</t>
+  </si>
+  <si>
+    <t>5) Sort Stack</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/sort_stack.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/valid_para.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/minimum_resersal_tomake_valid.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/decode_string.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/longest_valid.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) Two Stack One Array </t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/two_stack_one_array.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/next_smaller.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/prev_smaller.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/next_greater_Linked_list.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/largest_rectangle.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/maximal_reactangle_area.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/online_span.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/reverse_polish.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/simplfy_path.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/min_stack.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/celebrity.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/car_fleet.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/car_fleet_2.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) Valid Paraenthesis </t>
+  </si>
+  <si>
+    <t>8) Minimum Bracket Reversal to Make Valid</t>
+  </si>
+  <si>
+    <t>9) Decode String</t>
+  </si>
+  <si>
+    <t>10) Longest Valid Paraenthesis</t>
+  </si>
+  <si>
+    <t>11) Next Smaller</t>
+  </si>
+  <si>
+    <t>12) Previous Smaller</t>
+  </si>
+  <si>
+    <t>13) Next Greater Element in Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14) Largest Rectangle </t>
+  </si>
+  <si>
+    <t>15) Maximal Area</t>
+  </si>
+  <si>
+    <t>16) Online Span</t>
+  </si>
+  <si>
+    <t>17) Reverse Polish</t>
+  </si>
+  <si>
+    <t>18) Simplfy Path</t>
+  </si>
+  <si>
+    <t>19) Min Stack</t>
+  </si>
+  <si>
+    <t>20) Celebrity Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21) Car Fleet </t>
+  </si>
+  <si>
+    <t>22) Car Fleet 2</t>
+  </si>
+  <si>
+    <t>23) Check if Word is Valid after Substitution</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Stack/word_is_valid.cpp</t>
+  </si>
+  <si>
+    <t>Trees</t>
   </si>
 </sst>
 </file>
@@ -384,7 +615,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -460,7 +691,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -481,70 +712,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -559,7 +732,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -572,9 +745,261 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -588,40 +1013,34 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -632,7 +1051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -648,42 +1067,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -692,29 +1090,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1031,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7931DF3-A13D-441B-9EDF-DCE8E0B347A5}">
-  <dimension ref="A1:AK176"/>
+  <dimension ref="A1:AK177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1047,45 +1493,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
     </row>
     <row r="2" spans="1:37" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1105,20 +1551,20 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="24" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1129,22 +1575,22 @@
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="24" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="4"/>
@@ -1153,11 +1599,11 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="24" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4"/>
@@ -1166,64 +1612,70 @@
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+    </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="24" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1234,11 +1686,11 @@
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1249,11 +1701,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1264,11 +1716,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1279,11 +1731,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1294,120 +1746,120 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="30"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="34"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="4"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
@@ -1415,883 +1867,1040 @@
       <c r="A34" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="34"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="4"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="4"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="4"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="4"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="16"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
+      <c r="A63" s="41"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
+      <c r="A64" s="48"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="4"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="4"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="39"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="4"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="E72" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="E73" s="5" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="43"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="E74" s="5" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="4"/>
+      <c r="A75" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="43"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="E75" s="5" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="4"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="4"/>
+      <c r="A76" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="E76" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="4"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="39"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="4"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="4"/>
+      <c r="A78" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="43"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="E78" s="5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="4"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="E79" s="5" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="E80" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="A81" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="E81" s="5" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="A82" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="E82" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="A83" s="39"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="A84" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="43"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="E84" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="A85" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" s="43"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="A86" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B86" s="43"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="A87" s="39"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="25"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="A88" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="5" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="A89" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" s="43"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="A90" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="43"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="43"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="5" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="A92" s="39"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="25"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="A93" s="39"/>
+      <c r="B93" s="43"/>
+      <c r="C93" s="25"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
+    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="41"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="48"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="50"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="A96" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B96" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C96" s="46"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="18" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="43"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
+      <c r="E97" s="5" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="43"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
+      <c r="E98" s="5" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="A99" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="B99" s="43"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="E99" s="5" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="A100" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" s="43"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="E100" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="A101" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" s="43"/>
+      <c r="C101" s="25"/>
       <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
+      <c r="E101" s="5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="4"/>
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="43"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="A103" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B103" s="43"/>
+      <c r="C103" s="25"/>
       <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
+      <c r="E103" s="5" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="A104" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B104" s="43"/>
+      <c r="C104" s="25"/>
       <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
+      <c r="E104" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="A105" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B105" s="43"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
+      <c r="E105" s="5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="A106" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B106" s="43"/>
+      <c r="C106" s="25"/>
       <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
+      <c r="E106" s="5" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="A107" s="39"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="43"/>
+      <c r="C108" s="25"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="A109" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="43"/>
+      <c r="C109" s="25"/>
       <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
+      <c r="E109" s="5" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="A110" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" s="43"/>
+      <c r="C110" s="25"/>
       <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
+      <c r="E110" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="A111" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B111" s="43"/>
+      <c r="C111" s="25"/>
       <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
+      <c r="E111" s="5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="A112" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="43"/>
+      <c r="C112" s="25"/>
       <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
+      <c r="E112" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="A113" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="43"/>
+      <c r="C113" s="25"/>
       <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
+      <c r="E113" s="5" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="A114" s="39"/>
+      <c r="B114" s="43"/>
+      <c r="C114" s="25"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="A115" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" s="43"/>
+      <c r="C115" s="25"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
+      <c r="E115" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="A116" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B116" s="43"/>
+      <c r="C116" s="25"/>
       <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="E116" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="A117" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B117" s="43"/>
+      <c r="C117" s="25"/>
       <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
+      <c r="E117" s="5" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="A118" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B118" s="43"/>
+      <c r="C118" s="25"/>
       <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
+      <c r="E118" s="5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+      <c r="A119" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="43"/>
+      <c r="C119" s="25"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
+      <c r="E119" s="5" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+      <c r="A120" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B120" s="43"/>
+      <c r="C120" s="25"/>
       <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
+      <c r="E120" s="5" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="A121" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B121" s="43"/>
+      <c r="C121" s="25"/>
       <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
+      <c r="E121" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="A122" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122" s="43"/>
+      <c r="C122" s="25"/>
       <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
+      <c r="E122" s="5" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="A123" s="39"/>
+      <c r="B123" s="43"/>
+      <c r="C123" s="25"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="A124" s="39"/>
+      <c r="B124" s="43"/>
+      <c r="C124" s="25"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="A125" s="39"/>
+      <c r="B125" s="43"/>
+      <c r="C125" s="25"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="A126" s="39"/>
+      <c r="B126" s="43"/>
+      <c r="C126" s="25"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
+    <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="43"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="48"/>
+      <c r="B128" s="49"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="50"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
+      <c r="B130" s="14"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
+      <c r="B131" s="14"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
+      <c r="B132" s="14"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
+      <c r="B133" s="14"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
+      <c r="B134" s="14"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="14"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
+      <c r="B136" s="14"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
+      <c r="B137" s="14"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
+      <c r="B138" s="14"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
+      <c r="B139" s="14"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
+      <c r="B140" s="14"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
+      <c r="B141" s="14"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
+      <c r="B142" s="14"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
+      <c r="B143" s="14"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
+      <c r="B144" s="14"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
+      <c r="B145" s="14"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
+      <c r="B146" s="15"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -2506,9 +3115,19 @@
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
     </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B65:B80"/>
+  <mergeCells count="17">
+    <mergeCell ref="B129:B146"/>
+    <mergeCell ref="B65:B94"/>
+    <mergeCell ref="B96:B127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A95:E95"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A43:A44"/>
@@ -2518,6 +3137,9 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B27:B63"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{984C5C56-3213-4275-BBDE-1B60976BA02C}"/>
@@ -2561,8 +3183,46 @@
     <hyperlink ref="E68" r:id="rId39" xr:uid="{8D3FB8E2-189C-458F-86F5-58915816938A}"/>
     <hyperlink ref="E69" r:id="rId40" xr:uid="{6BC2115B-C486-4209-A9F8-13E74AB95D32}"/>
     <hyperlink ref="E70" r:id="rId41" xr:uid="{86506416-7E89-4C05-A3AF-2E6DBBA1BDBC}"/>
+    <hyperlink ref="E73" r:id="rId42" xr:uid="{F1093CEB-FF74-44F9-BF70-B21464606169}"/>
+    <hyperlink ref="E72" r:id="rId43" xr:uid="{D7122B46-1B8D-41A0-B0FF-90D7A36A5983}"/>
+    <hyperlink ref="E74" r:id="rId44" xr:uid="{BD5E4678-5B05-4E19-8CD4-A06C0DF8FFEA}"/>
+    <hyperlink ref="E75" r:id="rId45" xr:uid="{529D4E01-6D3A-4D75-803C-A2CE8A9492AD}"/>
+    <hyperlink ref="E76" r:id="rId46" xr:uid="{0454FEE8-7574-4564-A9A8-DC182F871D98}"/>
+    <hyperlink ref="E79" r:id="rId47" xr:uid="{3DFF43E6-A626-422D-AE13-EC8E85064443}"/>
+    <hyperlink ref="E80" r:id="rId48" xr:uid="{623769F7-1406-400B-AF15-22AB07A025CB}"/>
+    <hyperlink ref="E81" r:id="rId49" xr:uid="{C0FF6BC8-A345-46D9-A2D2-7E53350165D7}"/>
+    <hyperlink ref="E82" r:id="rId50" xr:uid="{640DBB7E-2CC7-4AA1-B906-880933591CC7}"/>
+    <hyperlink ref="E84" r:id="rId51" xr:uid="{C995B9F6-35AA-4F8E-8B34-22BBF973BF52}"/>
+    <hyperlink ref="E85" r:id="rId52" xr:uid="{C9FB2EEC-6A75-416D-97D0-601878690388}"/>
+    <hyperlink ref="E86" r:id="rId53" xr:uid="{F469D0F3-747B-4F54-BD22-09484F2C0A93}"/>
+    <hyperlink ref="E88" r:id="rId54" xr:uid="{B54CF143-BC9B-4E5F-9A66-8F8276C0B2BA}"/>
+    <hyperlink ref="E78" r:id="rId55" xr:uid="{F407B02F-7ECE-43D8-A141-C8E9CE1FD7AA}"/>
+    <hyperlink ref="E91" r:id="rId56" xr:uid="{10154420-1ECA-44ED-80E4-D076A95D2973}"/>
+    <hyperlink ref="E96" r:id="rId57" xr:uid="{4893C5BD-096F-4FB4-B385-CDDF1B27330E}"/>
+    <hyperlink ref="E97" r:id="rId58" xr:uid="{8B4D1D84-D334-49C3-A52D-64B03B1B9E54}"/>
+    <hyperlink ref="E98" r:id="rId59" xr:uid="{D9D2D35A-AB93-46C8-9302-3C4DC90CDB70}"/>
+    <hyperlink ref="E99" r:id="rId60" xr:uid="{E6C243FA-3B84-4E49-8907-9F0ABDA11071}"/>
+    <hyperlink ref="E100" r:id="rId61" xr:uid="{315C1901-BAF5-488B-9769-F95978528591}"/>
+    <hyperlink ref="E103" r:id="rId62" xr:uid="{5834B84F-0A36-46BC-8B6A-46004D724949}"/>
+    <hyperlink ref="E104" r:id="rId63" xr:uid="{9D8B67A1-F9F1-412E-85E8-BE67469D6403}"/>
+    <hyperlink ref="E105" r:id="rId64" xr:uid="{DDD85AA8-58AF-4691-ACF2-108690521236}"/>
+    <hyperlink ref="E106" r:id="rId65" xr:uid="{40A24849-B209-4218-88AD-1EF7507FAA0D}"/>
+    <hyperlink ref="E101" r:id="rId66" xr:uid="{15B199FD-32E8-4157-A650-BFDF0963FE69}"/>
+    <hyperlink ref="E109" r:id="rId67" xr:uid="{BBF859B7-4BD1-4B4B-9C16-7E02FCD41535}"/>
+    <hyperlink ref="E110" r:id="rId68" xr:uid="{53A29E7B-5CE5-4CB7-8FCC-2B3448A798FE}"/>
+    <hyperlink ref="E111" r:id="rId69" xr:uid="{15CA9DEB-0891-4AF6-A4AC-C201DB5A807D}"/>
+    <hyperlink ref="E112" r:id="rId70" xr:uid="{97F53CEC-169B-4AC4-B037-8EEF139CE84E}"/>
+    <hyperlink ref="E113" r:id="rId71" xr:uid="{AE448A97-1DA9-4B33-B0F1-BB3CE87A499F}"/>
+    <hyperlink ref="E115" r:id="rId72" xr:uid="{2F300D1E-4325-4204-90E9-B2964EE70615}"/>
+    <hyperlink ref="E116" r:id="rId73" xr:uid="{D56B9F15-2031-43FF-B411-F6A4BA6021A8}"/>
+    <hyperlink ref="E117" r:id="rId74" xr:uid="{09FFC2D1-68BE-4D2A-9EAC-609349F2196A}"/>
+    <hyperlink ref="E118" r:id="rId75" xr:uid="{2273A10F-6459-4A37-A61A-690CA3B77923}"/>
+    <hyperlink ref="E119" r:id="rId76" xr:uid="{04DD4E2D-862C-48DC-892C-6656D33CE69F}"/>
+    <hyperlink ref="E120" r:id="rId77" xr:uid="{10A0927F-6EFB-42F3-9344-BEC222C17AEE}"/>
+    <hyperlink ref="E121" r:id="rId78" xr:uid="{49CD1DB1-F7DF-4591-83DC-45D47F78BEA1}"/>
+    <hyperlink ref="E122" r:id="rId79" xr:uid="{72422266-2BBC-40AC-9881-8F4A8FE86830}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
--- a/dsa sheet(AutoRecovered).xlsx
+++ b/dsa sheet(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\DSA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0088D5D5-70D7-4BC5-A7E2-8B612B0E8198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F7FE3C-D0FC-4BA0-B8D5-F7819A5F2EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
   </bookViews>
@@ -1479,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7931DF3-A13D-441B-9EDF-DCE8E0B347A5}">
   <dimension ref="A1:AK177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" workbookViewId="0">
       <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>

--- a/dsa sheet(AutoRecovered).xlsx
+++ b/dsa sheet(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\DSA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F7FE3C-D0FC-4BA0-B8D5-F7819A5F2EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BA52AA-EB28-4139-8D93-84548F9AB2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
   <si>
     <t xml:space="preserve">                                                                                                                       DSA COMPLETE SHEET</t>
   </si>
@@ -568,6 +568,108 @@
   </si>
   <si>
     <t>Trees</t>
+  </si>
+  <si>
+    <t>1) Build Tree</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/Basics.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/level_order_traversal.cpp</t>
+  </si>
+  <si>
+    <t>2) Level Order Traversal</t>
+  </si>
+  <si>
+    <t>3) Inorder, Preorder, Postorder</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/inorder_preorder_postorder.cpp</t>
+  </si>
+  <si>
+    <t>4)  Height of Tree</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/height.cpp</t>
+  </si>
+  <si>
+    <t>5) Diameter of Tree</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/diameter.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/balance_binary.cpp</t>
+  </si>
+  <si>
+    <t>6) Balanced or NOT</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/convert_to_sum_tree.cpp</t>
+  </si>
+  <si>
+    <t>7) Convert to Sum Tree</t>
+  </si>
+  <si>
+    <t>8) Lowest Common Ancestor</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/lowest_common_ancestor.cpp</t>
+  </si>
+  <si>
+    <t>9) Kth Ancestor</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/kth_ancestor.cpp</t>
+  </si>
+  <si>
+    <t>10) Path Sum - 2</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/path_sum_2.cpp</t>
+  </si>
+  <si>
+    <t>11) Build Tree from Inorder + Preorder</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/build_inorder_preorder.cpp</t>
+  </si>
+  <si>
+    <t>12) Build Tree from Inorder + Postorder</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/build_inorder_postorder.cpp</t>
+  </si>
+  <si>
+    <t>13) Top View</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/top_view.cpp</t>
+  </si>
+  <si>
+    <t>14) Bottom View</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/bottom_view.cpp</t>
+  </si>
+  <si>
+    <t>15) Left View</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/left_view.cpp</t>
+  </si>
+  <si>
+    <t>16) Right View</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/right_view.cpp</t>
+  </si>
+  <si>
+    <t>17) Boundary Traversal</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/boundary_traversal.cpp</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,21 +1177,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1101,6 +1188,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,9 +1238,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,20 +1247,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1145,22 +1256,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1477,10 +1580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7931DF3-A13D-441B-9EDF-DCE8E0B347A5}">
-  <dimension ref="A1:AK177"/>
+  <dimension ref="A1:AV177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A147" sqref="A147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1493,45 +1596,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
     </row>
     <row r="2" spans="1:37" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1551,20 +1654,20 @@
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1575,22 +1678,22 @@
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="24" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="4"/>
@@ -1599,11 +1702,11 @@
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="24" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="4"/>
@@ -1612,55 +1715,55 @@
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="26"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -1671,11 +1774,11 @@
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="24" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1686,11 +1789,11 @@
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="24" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1701,11 +1804,11 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="24" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1716,11 +1819,11 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="24" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1731,11 +1834,11 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1746,1161 +1849,1230 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="20"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="30"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="32"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="25"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="25"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="25"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="25"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="25"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="25"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="25"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="24"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="38"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="20"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="25"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="20"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="25"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="25"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="20"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="38"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="25"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="25"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="20"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="25"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="25"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="48"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="25"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="20"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="25"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="20"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="25"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="20"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="25"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="25"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="20"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="25"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="20"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="20"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="41"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="32"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="48"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="34"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="35"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
+      <c r="A65" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="42" t="s">
+      <c r="B65" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="46"/>
+      <c r="C65" s="29"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="25"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="20"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="25"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="20"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="25"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="20"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="43"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="20"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="20"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="20"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="25"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="20"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="43"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="20"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="25"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="20"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="25"/>
+      <c r="B75" s="48"/>
+      <c r="C75" s="20"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="25"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="20"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="48"/>
+      <c r="C77" s="20"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="39" t="s">
+      <c r="A78" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="43"/>
-      <c r="C78" s="25"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="20"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="25"/>
+      <c r="B79" s="48"/>
+      <c r="C79" s="20"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="25"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="20"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="25"/>
+      <c r="B81" s="48"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="25"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="20"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="48"/>
+      <c r="C83" s="20"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="25"/>
+      <c r="B84" s="48"/>
+      <c r="C84" s="20"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="25"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="20"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="25"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="20"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="20"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="25"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="20"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B89" s="43"/>
-      <c r="C89" s="25"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="20"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="39" t="s">
+      <c r="A90" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="43"/>
-      <c r="C90" s="25"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="20"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="39" t="s">
+      <c r="A91" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="25"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="20"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="39"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="25"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="20"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="25"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="20"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="41"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="32"/>
+      <c r="A94" s="27"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="24"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="48"/>
-      <c r="B95" s="49"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="49"/>
-      <c r="E95" s="50"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="35"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B96" s="42" t="s">
+      <c r="B96" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C96" s="46"/>
+      <c r="C96" s="29"/>
       <c r="D96" s="12"/>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="39" t="s">
+      <c r="A97" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="43"/>
-      <c r="C97" s="25"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="20"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="39" t="s">
+      <c r="A98" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="43"/>
-      <c r="C98" s="25"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="20"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="39" t="s">
+      <c r="A99" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="25"/>
+      <c r="B99" s="48"/>
+      <c r="C99" s="20"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="39" t="s">
+      <c r="A100" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="25"/>
+      <c r="B100" s="48"/>
+      <c r="C100" s="20"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="39" t="s">
+      <c r="A101" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B101" s="43"/>
-      <c r="C101" s="25"/>
+      <c r="B101" s="48"/>
+      <c r="C101" s="20"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="39"/>
-      <c r="B102" s="43"/>
-      <c r="C102" s="25"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="48"/>
+      <c r="C102" s="20"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="39" t="s">
+      <c r="A103" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="43"/>
-      <c r="C103" s="25"/>
+      <c r="B103" s="48"/>
+      <c r="C103" s="20"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="39" t="s">
+      <c r="A104" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="43"/>
-      <c r="C104" s="25"/>
+      <c r="B104" s="48"/>
+      <c r="C104" s="20"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="39" t="s">
+      <c r="A105" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="43"/>
-      <c r="C105" s="25"/>
+      <c r="B105" s="48"/>
+      <c r="C105" s="20"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="43"/>
-      <c r="C106" s="25"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="20"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="39"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="25"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="48"/>
+      <c r="C107" s="20"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="39"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="25"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="48"/>
+      <c r="C108" s="20"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="39" t="s">
+      <c r="A109" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B109" s="43"/>
-      <c r="C109" s="25"/>
+      <c r="B109" s="48"/>
+      <c r="C109" s="20"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="39" t="s">
+      <c r="A110" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="43"/>
-      <c r="C110" s="25"/>
+      <c r="B110" s="48"/>
+      <c r="C110" s="20"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="39" t="s">
+      <c r="A111" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B111" s="43"/>
-      <c r="C111" s="25"/>
+      <c r="B111" s="48"/>
+      <c r="C111" s="20"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="39" t="s">
+      <c r="A112" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B112" s="43"/>
-      <c r="C112" s="25"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="20"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="39" t="s">
+      <c r="A113" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B113" s="43"/>
-      <c r="C113" s="25"/>
+      <c r="B113" s="48"/>
+      <c r="C113" s="20"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="39"/>
-      <c r="B114" s="43"/>
-      <c r="C114" s="25"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="39" t="s">
+      <c r="A115" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B115" s="43"/>
-      <c r="C115" s="25"/>
+      <c r="B115" s="48"/>
+      <c r="C115" s="20"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="39" t="s">
+      <c r="A116" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B116" s="43"/>
-      <c r="C116" s="25"/>
+      <c r="B116" s="48"/>
+      <c r="C116" s="20"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="39" t="s">
+      <c r="A117" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B117" s="43"/>
-      <c r="C117" s="25"/>
+      <c r="B117" s="48"/>
+      <c r="C117" s="20"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="39" t="s">
+      <c r="A118" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B118" s="43"/>
-      <c r="C118" s="25"/>
+      <c r="B118" s="48"/>
+      <c r="C118" s="20"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="39" t="s">
+      <c r="A119" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="43"/>
-      <c r="C119" s="25"/>
+      <c r="B119" s="48"/>
+      <c r="C119" s="20"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="39" t="s">
+      <c r="A120" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B120" s="43"/>
-      <c r="C120" s="25"/>
+      <c r="B120" s="48"/>
+      <c r="C120" s="20"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="39" t="s">
+      <c r="A121" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="43"/>
-      <c r="C121" s="25"/>
+      <c r="B121" s="48"/>
+      <c r="C121" s="20"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="39" t="s">
+      <c r="A122" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B122" s="43"/>
-      <c r="C122" s="25"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="20"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="39"/>
-      <c r="B123" s="43"/>
-      <c r="C123" s="25"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="48"/>
+      <c r="C123" s="20"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="39"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="25"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="48"/>
+      <c r="C124" s="20"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="39"/>
-      <c r="B125" s="43"/>
-      <c r="C125" s="25"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="20"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="39"/>
-      <c r="B126" s="43"/>
-      <c r="C126" s="25"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="20"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="43"/>
-      <c r="C127" s="32"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="24"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="48"/>
-      <c r="B128" s="49"/>
-      <c r="C128" s="49"/>
-      <c r="D128" s="49"/>
-      <c r="E128" s="50"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="12"/>
-      <c r="B129" s="13" t="s">
+      <c r="A128" s="33"/>
+      <c r="B128" s="34"/>
+      <c r="C128" s="34"/>
+      <c r="D128" s="34"/>
+      <c r="E128" s="35"/>
+    </row>
+    <row r="129" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A129" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B129" s="50" t="s">
         <v>177</v>
       </c>
       <c r="C129" s="12"/>
       <c r="D129" s="12"/>
-      <c r="E129" s="12"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="14"/>
+      <c r="E129" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="130" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B130" s="51"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="14"/>
+      <c r="E130" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A131" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B131" s="51"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="14"/>
+      <c r="E131" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A132" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B132" s="51"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="14"/>
+      <c r="E132" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A133" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B133" s="51"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="4"/>
-      <c r="B134" s="14"/>
+      <c r="E133" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV133" s="32"/>
+    </row>
+    <row r="134" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A134" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B134" s="51"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="14"/>
+      <c r="E134" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A135" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B135" s="51"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="4"/>
-      <c r="B136" s="14"/>
+      <c r="E135" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A136" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B136" s="51"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="4"/>
-      <c r="B137" s="14"/>
+      <c r="E136" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A137" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="51"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="4"/>
-      <c r="B138" s="14"/>
+      <c r="E137" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B138" s="51"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="4"/>
-      <c r="B139" s="14"/>
+      <c r="E138" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A139" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B139" s="51"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="4"/>
-      <c r="B140" s="14"/>
+      <c r="E139" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A140" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B140" s="51"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="4"/>
-      <c r="B141" s="14"/>
+      <c r="E140" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A141" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B141" s="51"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="4"/>
-      <c r="B142" s="14"/>
+      <c r="E141" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A142" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B142" s="51"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="4"/>
-      <c r="B143" s="14"/>
+      <c r="E142" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A143" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B143" s="51"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="4"/>
-      <c r="B144" s="14"/>
+      <c r="E143" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="144" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="A144" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B144" s="51"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
+      <c r="E144" s="5" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="4"/>
-      <c r="B145" s="14"/>
+      <c r="A145" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B145" s="51"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
+      <c r="E145" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
-      <c r="B146" s="15"/>
+      <c r="B146" s="52"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
@@ -3128,9 +3300,6 @@
     <mergeCell ref="B96:B127"/>
     <mergeCell ref="A128:E128"/>
     <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="B14:B26"/>
@@ -3140,6 +3309,9 @@
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{984C5C56-3213-4275-BBDE-1B60976BA02C}"/>
@@ -3221,8 +3393,25 @@
     <hyperlink ref="E120" r:id="rId77" xr:uid="{10A0927F-6EFB-42F3-9344-BEC222C17AEE}"/>
     <hyperlink ref="E121" r:id="rId78" xr:uid="{49CD1DB1-F7DF-4591-83DC-45D47F78BEA1}"/>
     <hyperlink ref="E122" r:id="rId79" xr:uid="{72422266-2BBC-40AC-9881-8F4A8FE86830}"/>
+    <hyperlink ref="E129" r:id="rId80" xr:uid="{F702A79D-825E-414E-8B4C-00C8D6F33F58}"/>
+    <hyperlink ref="E130" r:id="rId81" xr:uid="{B691A6B1-4F53-4B11-9788-1BFE3E7E22B9}"/>
+    <hyperlink ref="E131" r:id="rId82" xr:uid="{6033E5CE-B7DA-48D1-AB45-CC1C7117CDF0}"/>
+    <hyperlink ref="E132" r:id="rId83" xr:uid="{9B8D4084-9ED0-410F-B0BF-232445A30693}"/>
+    <hyperlink ref="E133" r:id="rId84" xr:uid="{DE64B536-D7DE-414A-BAE8-2B911B05AC5D}"/>
+    <hyperlink ref="E134" r:id="rId85" xr:uid="{FFD3DA6B-3DE8-4F5C-8980-5AFD2D46054A}"/>
+    <hyperlink ref="E135" r:id="rId86" xr:uid="{11A11CFC-5173-4CD0-94F6-816AC0479EC0}"/>
+    <hyperlink ref="E136" r:id="rId87" xr:uid="{5678D134-4C97-4377-937D-4F8095E2CE03}"/>
+    <hyperlink ref="E137" r:id="rId88" xr:uid="{5A06EE10-ED03-4BEF-B368-4EDABAA0C64E}"/>
+    <hyperlink ref="E138" r:id="rId89" xr:uid="{F60E7FBE-DD88-4B89-AD33-B1676E4433EF}"/>
+    <hyperlink ref="E139" r:id="rId90" xr:uid="{BBDE6AA5-E124-472A-A5F3-3F90F06F48FF}"/>
+    <hyperlink ref="E140" r:id="rId91" xr:uid="{C22207DC-1226-42C3-8670-85E9713D310E}"/>
+    <hyperlink ref="E141" r:id="rId92" xr:uid="{18EAA51D-B8F0-44F4-8C1C-CB379F7A937D}"/>
+    <hyperlink ref="E142" r:id="rId93" xr:uid="{BB2C5D76-63F3-469D-A2BC-C0F97051D767}"/>
+    <hyperlink ref="E143" r:id="rId94" xr:uid="{6C327856-C189-4C02-95F7-C82CF486C0E5}"/>
+    <hyperlink ref="E144" r:id="rId95" xr:uid="{9F40F58C-9B79-4648-83E7-F97011CE2D92}"/>
+    <hyperlink ref="E145" r:id="rId96" xr:uid="{1E861326-8BA9-4E96-9F53-7295F088FD21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId80"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
 </worksheet>
 </file>
--- a/dsa sheet(AutoRecovered).xlsx
+++ b/dsa sheet(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\DSA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BA52AA-EB28-4139-8D93-84548F9AB2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3F1778-92A0-437B-8F02-EECBA5C678BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
   </bookViews>
@@ -1583,7 +1583,7 @@
   <dimension ref="A1:AV177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A139" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dsa sheet(AutoRecovered).xlsx
+++ b/dsa sheet(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\DSA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3F1778-92A0-437B-8F02-EECBA5C678BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDBDF62-9C34-48F5-99BA-95DB38CDEC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="235">
   <si>
     <t xml:space="preserve">                                                                                                                       DSA COMPLETE SHEET</t>
   </si>
@@ -670,6 +670,75 @@
   </si>
   <si>
     <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/boundary_traversal.cpp</t>
+  </si>
+  <si>
+    <t>18) Symmetric Tree</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/mirror_tree.cpp</t>
+  </si>
+  <si>
+    <t>19) Diagonal Traversal</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/diagonal_traversal.cpp</t>
+  </si>
+  <si>
+    <t>20) Zig-Zag Traversal</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/zig_zag_level.cpp</t>
+  </si>
+  <si>
+    <t>21) Vertical Traversal</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/vertical_order.cpp</t>
+  </si>
+  <si>
+    <t>22) Path-Sum 3</t>
+  </si>
+  <si>
+    <t>23) Morris Traversal</t>
+  </si>
+  <si>
+    <t>25) Maximum sum of non-adjacent nodes</t>
+  </si>
+  <si>
+    <t>26) Sum of largest Bloodline</t>
+  </si>
+  <si>
+    <t>27) Burning Tree</t>
+  </si>
+  <si>
+    <t>28) Find Duplicate Subtree</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/path_sum_3.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/morris_traversal.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/flatten_bst_ll.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/maximum_sum_non_adjacent.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/longest_bloodline.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/burning_tree.cpp</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/Trees/duplicate_subtree.cpp</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>24) Flatten BINARY Tree to Linked List</t>
   </si>
 </sst>
 </file>
@@ -717,7 +786,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1137,6 +1206,137 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1153,7 +1353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1205,6 +1405,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,15 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1247,24 +1456,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1580,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7931DF3-A13D-441B-9EDF-DCE8E0B347A5}">
-  <dimension ref="A1:AV177"/>
+  <dimension ref="A1:AV185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="97" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1596,45 +1806,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="43"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
     </row>
     <row r="2" spans="1:37" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1655,7 +1865,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="44" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="18"/>
@@ -1666,7 +1876,7 @@
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
@@ -1681,7 +1891,7 @@
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="19" t="s">
         <v>10</v>
       </c>
@@ -1692,7 +1902,7 @@
       <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="19" t="s">
         <v>31</v>
       </c>
@@ -1705,7 +1915,7 @@
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="42"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="19" t="s">
         <v>33</v>
       </c>
@@ -1716,51 +1926,51 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
-      <c r="B8" s="42"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="20"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="42"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="20"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
-      <c r="B11" s="42"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="20"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
-      <c r="B12" s="43"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="21"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="44" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -1777,7 +1987,7 @@
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
@@ -1792,7 +2002,7 @@
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="19" t="s">
         <v>18</v>
       </c>
@@ -1807,7 +2017,7 @@
       <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="19" t="s">
         <v>22</v>
       </c>
@@ -1822,7 +2032,7 @@
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="42"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="19" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +2047,7 @@
       <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="19" t="s">
         <v>27</v>
       </c>
@@ -1850,58 +2060,58 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
-      <c r="B20" s="42"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
-      <c r="B21" s="42"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
-      <c r="B22" s="42"/>
+      <c r="B22" s="45"/>
       <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
-      <c r="B23" s="42"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="20"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
-      <c r="B24" s="42"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
-      <c r="B25" s="42"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="24"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="36" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="18"/>
@@ -1909,8 +2119,8 @@
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1919,7 +2129,7 @@
       <c r="A29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="48"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="20"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
@@ -1930,7 +2140,7 @@
       <c r="A30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="48"/>
+      <c r="B30" s="37"/>
       <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
@@ -1941,7 +2151,7 @@
       <c r="A31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="48"/>
+      <c r="B31" s="37"/>
       <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
@@ -1952,7 +2162,7 @@
       <c r="A32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="48"/>
+      <c r="B32" s="37"/>
       <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
@@ -1961,23 +2171,23 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
-      <c r="B33" s="48"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="20"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="48"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="37"/>
       <c r="C35" s="20"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1986,7 +2196,7 @@
       <c r="A36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="37"/>
       <c r="C36" s="20"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
@@ -1997,7 +2207,7 @@
       <c r="A37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="37"/>
       <c r="C37" s="20"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
@@ -2008,7 +2218,7 @@
       <c r="A38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="48"/>
+      <c r="B38" s="37"/>
       <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
@@ -2019,7 +2229,7 @@
       <c r="A39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="48"/>
+      <c r="B39" s="37"/>
       <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2028,7 +2238,7 @@
       <c r="A40" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="48"/>
+      <c r="B40" s="37"/>
       <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2037,30 +2247,30 @@
       <c r="A41" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="37"/>
       <c r="C41" s="20"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
-      <c r="B42" s="48"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="24"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="20"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="37"/>
-      <c r="B44" s="48"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="20"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2069,7 +2279,7 @@
       <c r="A45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="48"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="20"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
@@ -2080,7 +2290,7 @@
       <c r="A46" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="48"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="20"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
@@ -2089,23 +2299,23 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
-      <c r="B47" s="48"/>
+      <c r="B47" s="37"/>
       <c r="C47" s="20"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="48"/>
+      <c r="B48" s="37"/>
       <c r="C48" s="20"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
-      <c r="B49" s="48"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="37"/>
       <c r="C49" s="20"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2114,7 +2324,7 @@
       <c r="A50" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="48"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="20"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
@@ -2125,7 +2335,7 @@
       <c r="A51" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="48"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="20"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
@@ -2136,7 +2346,7 @@
       <c r="A52" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="48"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="20"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
@@ -2147,7 +2357,7 @@
       <c r="A53" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="48"/>
+      <c r="B53" s="37"/>
       <c r="C53" s="20"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
@@ -2156,23 +2366,23 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
-      <c r="B54" s="48"/>
+      <c r="B54" s="37"/>
       <c r="C54" s="20"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="48"/>
+      <c r="B55" s="37"/>
       <c r="C55" s="20"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="38"/>
-      <c r="B56" s="48"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="20"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2181,7 +2391,7 @@
       <c r="A57" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="48"/>
+      <c r="B57" s="37"/>
       <c r="C57" s="20"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
@@ -2192,7 +2402,7 @@
       <c r="A58" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="48"/>
+      <c r="B58" s="37"/>
       <c r="C58" s="20"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
@@ -2203,7 +2413,7 @@
       <c r="A59" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="48"/>
+      <c r="B59" s="37"/>
       <c r="C59" s="20"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
@@ -2214,7 +2424,7 @@
       <c r="A60" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="48"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="20"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
@@ -2225,37 +2435,37 @@
       <c r="A61" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="48"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="20"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="26"/>
-      <c r="B62" s="48"/>
+      <c r="B62" s="37"/>
       <c r="C62" s="20"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="27"/>
-      <c r="B63" s="49"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="24"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="33"/>
-      <c r="B64" s="34"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="41"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="47" t="s">
+      <c r="B65" s="36" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="29"/>
@@ -2266,7 +2476,7 @@
       <c r="A66" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="48"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="20"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
@@ -2277,7 +2487,7 @@
       <c r="A67" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="48"/>
+      <c r="B67" s="37"/>
       <c r="C67" s="20"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5" t="s">
@@ -2288,7 +2498,7 @@
       <c r="A68" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="48"/>
+      <c r="B68" s="37"/>
       <c r="C68" s="20"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
@@ -2299,7 +2509,7 @@
       <c r="A69" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="48"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="20"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
@@ -2310,7 +2520,7 @@
       <c r="A70" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="48"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="20"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
@@ -2319,7 +2529,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="26"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="37"/>
       <c r="C71" s="20"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -2328,7 +2538,7 @@
       <c r="A72" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="48"/>
+      <c r="B72" s="37"/>
       <c r="C72" s="20"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5" t="s">
@@ -2339,7 +2549,7 @@
       <c r="A73" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="48"/>
+      <c r="B73" s="37"/>
       <c r="C73" s="20"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5" t="s">
@@ -2350,7 +2560,7 @@
       <c r="A74" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="48"/>
+      <c r="B74" s="37"/>
       <c r="C74" s="20"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5" t="s">
@@ -2361,7 +2571,7 @@
       <c r="A75" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="48"/>
+      <c r="B75" s="37"/>
       <c r="C75" s="20"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
@@ -2372,7 +2582,7 @@
       <c r="A76" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="48"/>
+      <c r="B76" s="37"/>
       <c r="C76" s="20"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
@@ -2381,7 +2591,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="26"/>
-      <c r="B77" s="48"/>
+      <c r="B77" s="37"/>
       <c r="C77" s="20"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -2390,7 +2600,7 @@
       <c r="A78" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="48"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="20"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
@@ -2401,7 +2611,7 @@
       <c r="A79" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="48"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="20"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
@@ -2412,7 +2622,7 @@
       <c r="A80" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="48"/>
+      <c r="B80" s="37"/>
       <c r="C80" s="20"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
@@ -2423,7 +2633,7 @@
       <c r="A81" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="48"/>
+      <c r="B81" s="37"/>
       <c r="C81" s="20"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5" t="s">
@@ -2434,7 +2644,7 @@
       <c r="A82" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="48"/>
+      <c r="B82" s="37"/>
       <c r="C82" s="20"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5" t="s">
@@ -2443,7 +2653,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="26"/>
-      <c r="B83" s="48"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="20"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2452,7 +2662,7 @@
       <c r="A84" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="48"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="20"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5" t="s">
@@ -2463,7 +2673,7 @@
       <c r="A85" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="48"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="20"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5" t="s">
@@ -2474,7 +2684,7 @@
       <c r="A86" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="48"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="20"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5" t="s">
@@ -2483,7 +2693,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="26"/>
-      <c r="B87" s="48"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="20"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2492,7 +2702,7 @@
       <c r="A88" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="48"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="20"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5" t="s">
@@ -2503,7 +2713,7 @@
       <c r="A89" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B89" s="48"/>
+      <c r="B89" s="37"/>
       <c r="C89" s="20"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -2512,7 +2722,7 @@
       <c r="A90" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="48"/>
+      <c r="B90" s="37"/>
       <c r="C90" s="20"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -2521,7 +2731,7 @@
       <c r="A91" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="48"/>
+      <c r="B91" s="37"/>
       <c r="C91" s="20"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5" t="s">
@@ -2530,37 +2740,37 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="26"/>
-      <c r="B92" s="48"/>
+      <c r="B92" s="37"/>
       <c r="C92" s="20"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="26"/>
-      <c r="B93" s="48"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="20"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="27"/>
-      <c r="B94" s="49"/>
+      <c r="B94" s="38"/>
       <c r="C94" s="24"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="33"/>
-      <c r="B95" s="34"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="35"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="41"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B96" s="47" t="s">
+      <c r="B96" s="36" t="s">
         <v>131</v>
       </c>
       <c r="C96" s="29"/>
@@ -2573,7 +2783,7 @@
       <c r="A97" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="48"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="20"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5" t="s">
@@ -2584,7 +2794,7 @@
       <c r="A98" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="48"/>
+      <c r="B98" s="37"/>
       <c r="C98" s="20"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5" t="s">
@@ -2595,7 +2805,7 @@
       <c r="A99" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="48"/>
+      <c r="B99" s="37"/>
       <c r="C99" s="20"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
@@ -2606,7 +2816,7 @@
       <c r="A100" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B100" s="48"/>
+      <c r="B100" s="37"/>
       <c r="C100" s="20"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5" t="s">
@@ -2617,7 +2827,7 @@
       <c r="A101" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B101" s="48"/>
+      <c r="B101" s="37"/>
       <c r="C101" s="20"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5" t="s">
@@ -2626,7 +2836,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="26"/>
-      <c r="B102" s="48"/>
+      <c r="B102" s="37"/>
       <c r="C102" s="20"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -2635,7 +2845,7 @@
       <c r="A103" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="48"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="20"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5" t="s">
@@ -2646,7 +2856,7 @@
       <c r="A104" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="48"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="20"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
@@ -2657,7 +2867,7 @@
       <c r="A105" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="48"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="20"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
@@ -2668,7 +2878,7 @@
       <c r="A106" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="48"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="20"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
@@ -2677,14 +2887,14 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="26"/>
-      <c r="B107" s="48"/>
+      <c r="B107" s="37"/>
       <c r="C107" s="20"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="26"/>
-      <c r="B108" s="48"/>
+      <c r="B108" s="37"/>
       <c r="C108" s="20"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -2693,7 +2903,7 @@
       <c r="A109" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B109" s="48"/>
+      <c r="B109" s="37"/>
       <c r="C109" s="20"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
@@ -2704,7 +2914,7 @@
       <c r="A110" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="48"/>
+      <c r="B110" s="37"/>
       <c r="C110" s="20"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5" t="s">
@@ -2715,7 +2925,7 @@
       <c r="A111" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B111" s="48"/>
+      <c r="B111" s="37"/>
       <c r="C111" s="20"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5" t="s">
@@ -2726,7 +2936,7 @@
       <c r="A112" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B112" s="48"/>
+      <c r="B112" s="37"/>
       <c r="C112" s="20"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5" t="s">
@@ -2737,7 +2947,7 @@
       <c r="A113" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B113" s="48"/>
+      <c r="B113" s="37"/>
       <c r="C113" s="20"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5" t="s">
@@ -2746,7 +2956,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="26"/>
-      <c r="B114" s="48"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="20"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -2755,7 +2965,7 @@
       <c r="A115" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B115" s="48"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="20"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
@@ -2766,7 +2976,7 @@
       <c r="A116" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B116" s="48"/>
+      <c r="B116" s="37"/>
       <c r="C116" s="20"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5" t="s">
@@ -2777,7 +2987,7 @@
       <c r="A117" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B117" s="48"/>
+      <c r="B117" s="37"/>
       <c r="C117" s="20"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5" t="s">
@@ -2788,7 +2998,7 @@
       <c r="A118" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B118" s="48"/>
+      <c r="B118" s="37"/>
       <c r="C118" s="20"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5" t="s">
@@ -2799,7 +3009,7 @@
       <c r="A119" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="48"/>
+      <c r="B119" s="37"/>
       <c r="C119" s="20"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5" t="s">
@@ -2810,7 +3020,7 @@
       <c r="A120" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B120" s="48"/>
+      <c r="B120" s="37"/>
       <c r="C120" s="20"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5" t="s">
@@ -2821,7 +3031,7 @@
       <c r="A121" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="48"/>
+      <c r="B121" s="37"/>
       <c r="C121" s="20"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5" t="s">
@@ -2832,7 +3042,7 @@
       <c r="A122" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B122" s="48"/>
+      <c r="B122" s="37"/>
       <c r="C122" s="20"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5" t="s">
@@ -2841,477 +3051,581 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="26"/>
-      <c r="B123" s="48"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="20"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="26"/>
-      <c r="B124" s="48"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="20"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="26"/>
-      <c r="B125" s="48"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="20"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="26"/>
-      <c r="B126" s="48"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="20"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="48"/>
+      <c r="B127" s="37"/>
       <c r="C127" s="24"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="33"/>
-      <c r="B128" s="34"/>
-      <c r="C128" s="34"/>
-      <c r="D128" s="34"/>
-      <c r="E128" s="35"/>
+      <c r="A128" s="39"/>
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="41"/>
     </row>
     <row r="129" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="B129" s="50" t="s">
+      <c r="B129" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-      <c r="E129" s="13" t="s">
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="54" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A130" s="4" t="s">
+      <c r="A130" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="B130" s="51"/>
+      <c r="B130" s="34"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="5" t="s">
+      <c r="E130" s="56" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A131" s="4" t="s">
+      <c r="A131" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B131" s="51"/>
+      <c r="B131" s="34"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="5" t="s">
+      <c r="E131" s="56" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A132" s="4" t="s">
+      <c r="A132" s="55" t="s">
         <v>184</v>
       </c>
-      <c r="B132" s="51"/>
+      <c r="B132" s="34"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="5" t="s">
+      <c r="E132" s="56" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A133" s="4" t="s">
+      <c r="A133" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="B133" s="51"/>
+      <c r="B133" s="34"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="5" t="s">
+      <c r="E133" s="56" t="s">
         <v>187</v>
       </c>
       <c r="AV133" s="32"/>
     </row>
     <row r="134" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A134" s="4" t="s">
+      <c r="A134" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="B134" s="51"/>
+      <c r="B134" s="34"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="5" t="s">
+      <c r="E134" s="56" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="B135" s="51"/>
+      <c r="B135" s="34"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="5" t="s">
+      <c r="E135" s="56" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A136" s="4" t="s">
+      <c r="A136" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="B136" s="51"/>
+      <c r="B136" s="34"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="56" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="B137" s="51"/>
+      <c r="B137" s="34"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="5" t="s">
+      <c r="E137" s="56" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A138" s="4" t="s">
+      <c r="A138" s="55" t="s">
         <v>196</v>
       </c>
-      <c r="B138" s="51"/>
+      <c r="B138" s="34"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="56" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="B139" s="51"/>
+      <c r="B139" s="34"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="5" t="s">
+      <c r="E139" s="56" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A140" s="4" t="s">
+      <c r="A140" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="B140" s="51"/>
+      <c r="B140" s="34"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A141" s="4" t="s">
+      <c r="A141" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="B141" s="51"/>
+      <c r="B141" s="34"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="56" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="51"/>
+      <c r="B142" s="34"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="5" t="s">
+      <c r="E142" s="56" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="51"/>
+      <c r="B143" s="34"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="5" t="s">
+      <c r="E143" s="56" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A144" s="4" t="s">
+      <c r="A144" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="B144" s="51"/>
+      <c r="B144" s="34"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="5" t="s">
+      <c r="E144" s="56" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="B145" s="51"/>
+      <c r="B145" s="34"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="56" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="4"/>
-      <c r="B146" s="52"/>
+      <c r="A146" s="55"/>
+      <c r="B146" s="34"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
+      <c r="E146" s="57"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
+      <c r="A147" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="B147" s="34"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
+      <c r="E147" s="56" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
+      <c r="A148" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B148" s="34"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
+      <c r="E148" s="56" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
+      <c r="A149" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B149" s="34"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
+      <c r="E149" s="56" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
+      <c r="A150" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B150" s="34"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
+      <c r="E150" s="56" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
+      <c r="A151" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B151" s="34"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
+      <c r="E151" s="56" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
+      <c r="A152" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B152" s="34"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
+      <c r="E152" s="56" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
+      <c r="A153" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B153" s="34"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
+      <c r="E153" s="56" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
+      <c r="A154" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B154" s="34"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
+      <c r="E154" s="56" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="4"/>
-      <c r="B155" s="4"/>
+      <c r="A155" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B155" s="34"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
+      <c r="E155" s="56" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="4"/>
-      <c r="B156" s="4"/>
+      <c r="A156" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" s="34"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="4"/>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="4"/>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
+      <c r="E156" s="56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="B157" s="34"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="60"/>
+      <c r="B158" s="61"/>
+      <c r="C158" s="61"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="62"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="4"/>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
-      <c r="B160" s="4"/>
+      <c r="B160" s="34"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
-      <c r="B161" s="4"/>
+      <c r="B161" s="34"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
-      <c r="B162" s="4"/>
+      <c r="B162" s="34"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
-      <c r="B163" s="4"/>
+      <c r="B163" s="34"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
-      <c r="B164" s="4"/>
+      <c r="B164" s="34"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
-      <c r="B165" s="4"/>
+      <c r="B165" s="34"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
-      <c r="B166" s="4"/>
+      <c r="B166" s="34"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
-      <c r="B167" s="4"/>
+      <c r="B167" s="34"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
-      <c r="B168" s="4"/>
+      <c r="B168" s="34"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
-      <c r="B169" s="4"/>
+      <c r="B169" s="34"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
-      <c r="B170" s="4"/>
+      <c r="B170" s="34"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
+      <c r="B171" s="34"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
+      <c r="B172" s="34"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
+      <c r="B173" s="34"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
+      <c r="B174" s="34"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
-      <c r="B175" s="4"/>
+      <c r="B175" s="34"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
-      <c r="B176" s="4"/>
+      <c r="B176" s="34"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
+      <c r="B177" s="34"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
     </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="4"/>
+      <c r="B178" s="34"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="4"/>
+      <c r="B179" s="34"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="4"/>
+      <c r="B180" s="34"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="4"/>
+      <c r="B181" s="34"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="4"/>
+      <c r="B182" s="34"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="4"/>
+      <c r="B183" s="34"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="4"/>
+      <c r="B184" s="34"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="4"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B129:B146"/>
-    <mergeCell ref="B65:B94"/>
-    <mergeCell ref="B96:B127"/>
-    <mergeCell ref="A128:E128"/>
-    <mergeCell ref="A95:E95"/>
+  <mergeCells count="18">
+    <mergeCell ref="B159:B185"/>
+    <mergeCell ref="A64:E64"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="B3:B12"/>
     <mergeCell ref="B14:B26"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="B27:B63"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B65:B94"/>
+    <mergeCell ref="B96:B127"/>
+    <mergeCell ref="A128:E128"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="B129:B157"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{984C5C56-3213-4275-BBDE-1B60976BA02C}"/>
@@ -3410,8 +3724,19 @@
     <hyperlink ref="E143" r:id="rId94" xr:uid="{6C327856-C189-4C02-95F7-C82CF486C0E5}"/>
     <hyperlink ref="E144" r:id="rId95" xr:uid="{9F40F58C-9B79-4648-83E7-F97011CE2D92}"/>
     <hyperlink ref="E145" r:id="rId96" xr:uid="{1E861326-8BA9-4E96-9F53-7295F088FD21}"/>
+    <hyperlink ref="E147" r:id="rId97" xr:uid="{5E9EC3B5-F97F-48F9-820C-1F3C47849457}"/>
+    <hyperlink ref="E148" r:id="rId98" xr:uid="{4D386D23-FDB8-411B-9D3A-2AE96F51B5C1}"/>
+    <hyperlink ref="E149" r:id="rId99" xr:uid="{EBF967F2-E72C-4F21-920C-BA72A257D5EA}"/>
+    <hyperlink ref="E150" r:id="rId100" xr:uid="{3B2E2B1C-4FAD-41E0-BEC1-FB3AC7D5596F}"/>
+    <hyperlink ref="E151" r:id="rId101" xr:uid="{9C5D57D7-9A07-407D-B545-FCBB218132FD}"/>
+    <hyperlink ref="E152" r:id="rId102" xr:uid="{C947A66B-AF35-43CD-9034-B421A0A5D31A}"/>
+    <hyperlink ref="E153" r:id="rId103" xr:uid="{51F8176C-9C0F-4839-B8D0-ABDEA993EB45}"/>
+    <hyperlink ref="E154" r:id="rId104" xr:uid="{7EE777F4-8653-4016-B1CE-759A3CD030E0}"/>
+    <hyperlink ref="E155" r:id="rId105" xr:uid="{6479C96B-E5F3-470D-928D-AAC21750DEA6}"/>
+    <hyperlink ref="E156" r:id="rId106" xr:uid="{5074A131-6CC7-4B85-825E-DD494E8AB36F}"/>
+    <hyperlink ref="E157" r:id="rId107" xr:uid="{2E299E4A-4D76-4EBC-8B0F-D03EFE3096C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
 </worksheet>
 </file>
--- a/dsa sheet(AutoRecovered).xlsx
+++ b/dsa sheet(AutoRecovered).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adars\OneDrive\Desktop\DSA-Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDBDF62-9C34-48F5-99BA-95DB38CDEC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDC051E-A58A-4273-93EF-54261DC03FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{495354D5-90BE-40FD-8E16-1313B3540C8C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="280">
   <si>
     <t xml:space="preserve">                                                                                                                       DSA COMPLETE SHEET</t>
   </si>
@@ -739,6 +739,141 @@
   </si>
   <si>
     <t>24) Flatten BINARY Tree to Linked List</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/basics.cpp</t>
+  </si>
+  <si>
+    <t>2) Inorder &amp; Preorder  &amp; Postorder</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/inorder_preorder_postorder.cpp</t>
+  </si>
+  <si>
+    <t>3) Searching</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/searching.cpp</t>
+  </si>
+  <si>
+    <t>4) Min_Max values</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/min_max_values.cpp</t>
+  </si>
+  <si>
+    <t>5) Deletion</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/deletion.cpp</t>
+  </si>
+  <si>
+    <t>6) Validate BST</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/validate_bst.cpp</t>
+  </si>
+  <si>
+    <t>7) Kth smallest element</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/kth_smallest.cpp</t>
+  </si>
+  <si>
+    <t>8) 2 Sum</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/2_sum_bst.cpp</t>
+  </si>
+  <si>
+    <t>9) Bst to sorted doubly ll</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/bst_dll.cpp</t>
+  </si>
+  <si>
+    <t>10) Doubly ll to bst (Hard in O(n))</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/dll_bst.cpp</t>
+  </si>
+  <si>
+    <t>11) Largest BST in binary tree</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/lasrgest_best.cpp</t>
+  </si>
+  <si>
+    <t>12) Inorder Predecessor</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/inorder_pred.cpp</t>
+  </si>
+  <si>
+    <t>13) Inorder Successor</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/inorder_succ.cpp</t>
+  </si>
+  <si>
+    <t>14) BST from Preorder</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/bst_from_predorder.cpp</t>
+  </si>
+  <si>
+    <t>15) Balance a BST</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/balance_a_bst.cpp</t>
+  </si>
+  <si>
+    <t>16) Median using morris traversal</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/median_bst.cpp</t>
+  </si>
+  <si>
+    <t>17) Check for dead end</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/bst_dead_end.cpp</t>
+  </si>
+  <si>
+    <t>18) Range Sum</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/range_sum.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19) Replace elements with least greater element to its right </t>
+  </si>
+  <si>
+    <t>20) Validate BST from preorder</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/valid_bst_from_preorder.cpp</t>
+  </si>
+  <si>
+    <t>21) Merge 2 BST</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/merge_two_bst.cpp</t>
+  </si>
+  <si>
+    <t>22) Brothers from different roots</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/brothers_from_different_roots.cpp</t>
+  </si>
+  <si>
+    <t>23) BST from Inorder</t>
+  </si>
+  <si>
+    <t>https://github.com/adarsh-naik-2004/DSA-Files/blob/main/BST/bst_using_inorder.cpp</t>
+  </si>
+  <si>
+    <t>Heaps</t>
   </si>
 </sst>
 </file>
@@ -1405,22 +1540,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1431,6 +1564,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1456,25 +1598,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1790,10 +1925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7931DF3-A13D-441B-9EDF-DCE8E0B347A5}">
-  <dimension ref="A1:AV185"/>
+  <dimension ref="A1:AV207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="97" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="97" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1806,45 +1941,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
     </row>
     <row r="2" spans="1:37" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1865,7 +2000,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="53" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="18"/>
@@ -1876,7 +2011,7 @@
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="19" t="s">
         <v>6</v>
       </c>
@@ -1891,7 +2026,7 @@
       <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="19" t="s">
         <v>10</v>
       </c>
@@ -1902,7 +2037,7 @@
       <c r="A6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="19" t="s">
         <v>31</v>
       </c>
@@ -1915,7 +2050,7 @@
       <c r="A7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="19" t="s">
         <v>33</v>
       </c>
@@ -1926,51 +2061,51 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
-      <c r="B8" s="45"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="20"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="45"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="20"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
-      <c r="B10" s="45"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="20"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
-      <c r="B11" s="45"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="20"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
-      <c r="B12" s="46"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="21"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="53" t="s">
         <v>42</v>
       </c>
       <c r="C14" s="23" t="s">
@@ -1987,7 +2122,7 @@
       <c r="A15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="19" t="s">
         <v>15</v>
       </c>
@@ -2002,7 +2137,7 @@
       <c r="A16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="19" t="s">
         <v>18</v>
       </c>
@@ -2017,7 +2152,7 @@
       <c r="A17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="19" t="s">
         <v>22</v>
       </c>
@@ -2032,7 +2167,7 @@
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="19" t="s">
         <v>25</v>
       </c>
@@ -2047,7 +2182,7 @@
       <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="19" t="s">
         <v>27</v>
       </c>
@@ -2060,58 +2195,58 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="16"/>
-      <c r="B20" s="45"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="20"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
-      <c r="B21" s="45"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
-      <c r="B22" s="45"/>
+      <c r="B22" s="54"/>
       <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
-      <c r="B23" s="45"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="20"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
-      <c r="B24" s="45"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="20"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
-      <c r="B25" s="45"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="24"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="31"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="59" t="s">
         <v>43</v>
       </c>
       <c r="C27" s="18"/>
@@ -2119,8 +2254,8 @@
       <c r="E27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="20"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2129,7 +2264,7 @@
       <c r="A29" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="20"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5" t="s">
@@ -2140,7 +2275,7 @@
       <c r="A30" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="37"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="20"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5" t="s">
@@ -2151,7 +2286,7 @@
       <c r="A31" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="37"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="20"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5" t="s">
@@ -2162,7 +2297,7 @@
       <c r="A32" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="37"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="20"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5" t="s">
@@ -2171,23 +2306,23 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
-      <c r="B33" s="37"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="20"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="37"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="20"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="37"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="20"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2196,7 +2331,7 @@
       <c r="A36" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="37"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="20"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5" t="s">
@@ -2207,7 +2342,7 @@
       <c r="A37" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="37"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="20"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5" t="s">
@@ -2218,7 +2353,7 @@
       <c r="A38" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="37"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="20"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5" t="s">
@@ -2229,7 +2364,7 @@
       <c r="A39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="37"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="20"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2238,7 +2373,7 @@
       <c r="A40" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="20"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2247,30 +2382,30 @@
       <c r="A41" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="20"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
-      <c r="B42" s="37"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="24"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="37"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="20"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="51"/>
-      <c r="B44" s="37"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="20"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2279,7 +2414,7 @@
       <c r="A45" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="37"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="20"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5" t="s">
@@ -2290,7 +2425,7 @@
       <c r="A46" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="37"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="20"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5" t="s">
@@ -2299,23 +2434,23 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="26"/>
-      <c r="B47" s="37"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="20"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="37"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="20"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="37"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="20"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2324,7 +2459,7 @@
       <c r="A50" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="37"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="20"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5" t="s">
@@ -2335,7 +2470,7 @@
       <c r="A51" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="37"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="20"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5" t="s">
@@ -2346,7 +2481,7 @@
       <c r="A52" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B52" s="37"/>
+      <c r="B52" s="60"/>
       <c r="C52" s="20"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5" t="s">
@@ -2357,7 +2492,7 @@
       <c r="A53" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B53" s="37"/>
+      <c r="B53" s="60"/>
       <c r="C53" s="20"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
@@ -2366,23 +2501,23 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
-      <c r="B54" s="37"/>
+      <c r="B54" s="60"/>
       <c r="C54" s="20"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="60"/>
       <c r="C55" s="20"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="52"/>
-      <c r="B56" s="37"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="60"/>
       <c r="C56" s="20"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -2391,7 +2526,7 @@
       <c r="A57" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B57" s="37"/>
+      <c r="B57" s="60"/>
       <c r="C57" s="20"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5" t="s">
@@ -2402,7 +2537,7 @@
       <c r="A58" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="37"/>
+      <c r="B58" s="60"/>
       <c r="C58" s="20"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5" t="s">
@@ -2413,7 +2548,7 @@
       <c r="A59" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="37"/>
+      <c r="B59" s="60"/>
       <c r="C59" s="20"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5" t="s">
@@ -2424,7 +2559,7 @@
       <c r="A60" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="37"/>
+      <c r="B60" s="60"/>
       <c r="C60" s="20"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5" t="s">
@@ -2435,37 +2570,37 @@
       <c r="A61" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="37"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="20"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="26"/>
-      <c r="B62" s="37"/>
+      <c r="B62" s="60"/>
       <c r="C62" s="20"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="27"/>
-      <c r="B63" s="38"/>
+      <c r="B63" s="61"/>
       <c r="C63" s="24"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="39"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="47"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="59" t="s">
         <v>70</v>
       </c>
       <c r="C65" s="29"/>
@@ -2476,7 +2611,7 @@
       <c r="A66" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="37"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="20"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5" t="s">
@@ -2487,7 +2622,7 @@
       <c r="A67" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="B67" s="37"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="20"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5" t="s">
@@ -2498,7 +2633,7 @@
       <c r="A68" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B68" s="37"/>
+      <c r="B68" s="60"/>
       <c r="C68" s="20"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5" t="s">
@@ -2509,7 +2644,7 @@
       <c r="A69" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="60"/>
       <c r="C69" s="20"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5" t="s">
@@ -2520,7 +2655,7 @@
       <c r="A70" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="60"/>
       <c r="C70" s="20"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5" t="s">
@@ -2529,7 +2664,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="26"/>
-      <c r="B71" s="37"/>
+      <c r="B71" s="60"/>
       <c r="C71" s="20"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
@@ -2538,7 +2673,7 @@
       <c r="A72" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="60"/>
       <c r="C72" s="20"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5" t="s">
@@ -2549,7 +2684,7 @@
       <c r="A73" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="60"/>
       <c r="C73" s="20"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5" t="s">
@@ -2560,7 +2695,7 @@
       <c r="A74" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="60"/>
       <c r="C74" s="20"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5" t="s">
@@ -2571,7 +2706,7 @@
       <c r="A75" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="B75" s="37"/>
+      <c r="B75" s="60"/>
       <c r="C75" s="20"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5" t="s">
@@ -2582,7 +2717,7 @@
       <c r="A76" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="37"/>
+      <c r="B76" s="60"/>
       <c r="C76" s="20"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5" t="s">
@@ -2591,7 +2726,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="26"/>
-      <c r="B77" s="37"/>
+      <c r="B77" s="60"/>
       <c r="C77" s="20"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -2600,7 +2735,7 @@
       <c r="A78" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="37"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="20"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5" t="s">
@@ -2611,7 +2746,7 @@
       <c r="A79" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="B79" s="37"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="20"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5" t="s">
@@ -2622,7 +2757,7 @@
       <c r="A80" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B80" s="37"/>
+      <c r="B80" s="60"/>
       <c r="C80" s="20"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5" t="s">
@@ -2633,7 +2768,7 @@
       <c r="A81" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="B81" s="37"/>
+      <c r="B81" s="60"/>
       <c r="C81" s="20"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5" t="s">
@@ -2644,7 +2779,7 @@
       <c r="A82" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="37"/>
+      <c r="B82" s="60"/>
       <c r="C82" s="20"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5" t="s">
@@ -2653,7 +2788,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="26"/>
-      <c r="B83" s="37"/>
+      <c r="B83" s="60"/>
       <c r="C83" s="20"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -2662,7 +2797,7 @@
       <c r="A84" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="37"/>
+      <c r="B84" s="60"/>
       <c r="C84" s="20"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5" t="s">
@@ -2673,7 +2808,7 @@
       <c r="A85" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="37"/>
+      <c r="B85" s="60"/>
       <c r="C85" s="20"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5" t="s">
@@ -2684,7 +2819,7 @@
       <c r="A86" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B86" s="37"/>
+      <c r="B86" s="60"/>
       <c r="C86" s="20"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5" t="s">
@@ -2693,7 +2828,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="26"/>
-      <c r="B87" s="37"/>
+      <c r="B87" s="60"/>
       <c r="C87" s="20"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -2702,7 +2837,7 @@
       <c r="A88" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B88" s="37"/>
+      <c r="B88" s="60"/>
       <c r="C88" s="20"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5" t="s">
@@ -2713,7 +2848,7 @@
       <c r="A89" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="B89" s="37"/>
+      <c r="B89" s="60"/>
       <c r="C89" s="20"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -2722,7 +2857,7 @@
       <c r="A90" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="B90" s="37"/>
+      <c r="B90" s="60"/>
       <c r="C90" s="20"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -2731,7 +2866,7 @@
       <c r="A91" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="B91" s="37"/>
+      <c r="B91" s="60"/>
       <c r="C91" s="20"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5" t="s">
@@ -2740,37 +2875,37 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="26"/>
-      <c r="B92" s="37"/>
+      <c r="B92" s="60"/>
       <c r="C92" s="20"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="26"/>
-      <c r="B93" s="37"/>
+      <c r="B93" s="60"/>
       <c r="C93" s="20"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="27"/>
-      <c r="B94" s="38"/>
+      <c r="B94" s="61"/>
       <c r="C94" s="24"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
     </row>
     <row r="95" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="39"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="40"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="41"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="47"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="B96" s="36" t="s">
+      <c r="B96" s="59" t="s">
         <v>131</v>
       </c>
       <c r="C96" s="29"/>
@@ -2783,7 +2918,7 @@
       <c r="A97" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="B97" s="37"/>
+      <c r="B97" s="60"/>
       <c r="C97" s="20"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5" t="s">
@@ -2794,7 +2929,7 @@
       <c r="A98" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="B98" s="37"/>
+      <c r="B98" s="60"/>
       <c r="C98" s="20"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5" t="s">
@@ -2805,7 +2940,7 @@
       <c r="A99" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="B99" s="37"/>
+      <c r="B99" s="60"/>
       <c r="C99" s="20"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5" t="s">
@@ -2816,7 +2951,7 @@
       <c r="A100" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="B100" s="37"/>
+      <c r="B100" s="60"/>
       <c r="C100" s="20"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5" t="s">
@@ -2827,7 +2962,7 @@
       <c r="A101" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="B101" s="37"/>
+      <c r="B101" s="60"/>
       <c r="C101" s="20"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5" t="s">
@@ -2836,7 +2971,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="26"/>
-      <c r="B102" s="37"/>
+      <c r="B102" s="60"/>
       <c r="C102" s="20"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -2845,7 +2980,7 @@
       <c r="A103" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B103" s="37"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="20"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5" t="s">
@@ -2856,7 +2991,7 @@
       <c r="A104" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B104" s="37"/>
+      <c r="B104" s="60"/>
       <c r="C104" s="20"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5" t="s">
@@ -2867,7 +3002,7 @@
       <c r="A105" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B105" s="37"/>
+      <c r="B105" s="60"/>
       <c r="C105" s="20"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5" t="s">
@@ -2878,7 +3013,7 @@
       <c r="A106" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="B106" s="37"/>
+      <c r="B106" s="60"/>
       <c r="C106" s="20"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5" t="s">
@@ -2887,14 +3022,14 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="26"/>
-      <c r="B107" s="37"/>
+      <c r="B107" s="60"/>
       <c r="C107" s="20"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="26"/>
-      <c r="B108" s="37"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="20"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
@@ -2903,7 +3038,7 @@
       <c r="A109" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="B109" s="37"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="20"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5" t="s">
@@ -2914,7 +3049,7 @@
       <c r="A110" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="37"/>
+      <c r="B110" s="60"/>
       <c r="C110" s="20"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5" t="s">
@@ -2925,7 +3060,7 @@
       <c r="A111" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="B111" s="37"/>
+      <c r="B111" s="60"/>
       <c r="C111" s="20"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5" t="s">
@@ -2936,7 +3071,7 @@
       <c r="A112" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B112" s="37"/>
+      <c r="B112" s="60"/>
       <c r="C112" s="20"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5" t="s">
@@ -2947,7 +3082,7 @@
       <c r="A113" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B113" s="37"/>
+      <c r="B113" s="60"/>
       <c r="C113" s="20"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5" t="s">
@@ -2956,7 +3091,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="26"/>
-      <c r="B114" s="37"/>
+      <c r="B114" s="60"/>
       <c r="C114" s="20"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
@@ -2965,7 +3100,7 @@
       <c r="A115" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B115" s="37"/>
+      <c r="B115" s="60"/>
       <c r="C115" s="20"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5" t="s">
@@ -2976,7 +3111,7 @@
       <c r="A116" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B116" s="37"/>
+      <c r="B116" s="60"/>
       <c r="C116" s="20"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5" t="s">
@@ -2987,7 +3122,7 @@
       <c r="A117" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B117" s="37"/>
+      <c r="B117" s="60"/>
       <c r="C117" s="20"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5" t="s">
@@ -2998,7 +3133,7 @@
       <c r="A118" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="B118" s="37"/>
+      <c r="B118" s="60"/>
       <c r="C118" s="20"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5" t="s">
@@ -3009,7 +3144,7 @@
       <c r="A119" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="37"/>
+      <c r="B119" s="60"/>
       <c r="C119" s="20"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5" t="s">
@@ -3020,7 +3155,7 @@
       <c r="A120" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B120" s="37"/>
+      <c r="B120" s="60"/>
       <c r="C120" s="20"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5" t="s">
@@ -3031,7 +3166,7 @@
       <c r="A121" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B121" s="37"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="20"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5" t="s">
@@ -3042,7 +3177,7 @@
       <c r="A122" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B122" s="37"/>
+      <c r="B122" s="60"/>
       <c r="C122" s="20"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5" t="s">
@@ -3051,563 +3186,816 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="26"/>
-      <c r="B123" s="37"/>
+      <c r="B123" s="60"/>
       <c r="C123" s="20"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="26"/>
-      <c r="B124" s="37"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="20"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="26"/>
-      <c r="B125" s="37"/>
+      <c r="B125" s="60"/>
       <c r="C125" s="20"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="26"/>
-      <c r="B126" s="37"/>
+      <c r="B126" s="60"/>
       <c r="C126" s="20"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="37"/>
+      <c r="B127" s="60"/>
       <c r="C127" s="24"/>
       <c r="D127" s="11"/>
       <c r="E127" s="11"/>
     </row>
     <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="39"/>
-      <c r="B128" s="40"/>
-      <c r="C128" s="40"/>
-      <c r="D128" s="40"/>
-      <c r="E128" s="41"/>
+      <c r="A128" s="45"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="47"/>
     </row>
     <row r="129" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A129" s="53" t="s">
+      <c r="A129" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="B129" s="33" t="s">
+      <c r="B129" s="62" t="s">
         <v>177</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
-      <c r="E129" s="54" t="s">
+      <c r="E129" s="34" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="130" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A130" s="55" t="s">
+      <c r="A130" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B130" s="34"/>
+      <c r="B130" s="43"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="56" t="s">
+      <c r="E130" s="36" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A131" s="55" t="s">
+      <c r="A131" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B131" s="34"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="56" t="s">
+      <c r="E131" s="36" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="132" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A132" s="55" t="s">
+      <c r="A132" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B132" s="34"/>
+      <c r="B132" s="43"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="56" t="s">
+      <c r="E132" s="36" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A133" s="55" t="s">
+      <c r="A133" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B133" s="34"/>
+      <c r="B133" s="43"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="56" t="s">
+      <c r="E133" s="36" t="s">
         <v>187</v>
       </c>
       <c r="AV133" s="32"/>
     </row>
     <row r="134" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A134" s="55" t="s">
+      <c r="A134" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B134" s="34"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="56" t="s">
+      <c r="E134" s="36" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="135" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A135" s="55" t="s">
+      <c r="A135" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B135" s="34"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="56" t="s">
+      <c r="E135" s="36" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A136" s="55" t="s">
+      <c r="A136" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B136" s="34"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="56" t="s">
+      <c r="E136" s="36" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="137" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A137" s="55" t="s">
+      <c r="A137" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="B137" s="34"/>
+      <c r="B137" s="43"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="56" t="s">
+      <c r="E137" s="36" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A138" s="55" t="s">
+      <c r="A138" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="B138" s="34"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="56" t="s">
+      <c r="E138" s="36" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="139" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A139" s="55" t="s">
+      <c r="A139" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B139" s="34"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="56" t="s">
+      <c r="E139" s="36" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="140" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A140" s="55" t="s">
+      <c r="A140" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="B140" s="34"/>
+      <c r="B140" s="43"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="56" t="s">
+      <c r="E140" s="36" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="141" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A141" s="55" t="s">
+      <c r="A141" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B141" s="34"/>
+      <c r="B141" s="43"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="56" t="s">
+      <c r="E141" s="36" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="142" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A142" s="55" t="s">
+      <c r="A142" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B142" s="34"/>
+      <c r="B142" s="43"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="56" t="s">
+      <c r="E142" s="36" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="143" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A143" s="55" t="s">
+      <c r="A143" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B143" s="34"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="56" t="s">
+      <c r="E143" s="36" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="144" spans="1:48" x14ac:dyDescent="0.3">
-      <c r="A144" s="55" t="s">
+      <c r="A144" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="B144" s="34"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="56" t="s">
+      <c r="E144" s="36" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="55" t="s">
+      <c r="A145" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="B145" s="34"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="56" t="s">
+      <c r="E145" s="36" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="55"/>
-      <c r="B146" s="34"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="57"/>
+      <c r="E146" s="37"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="55" t="s">
+      <c r="A147" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="B147" s="34"/>
+      <c r="B147" s="43"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="56" t="s">
+      <c r="E147" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="55" t="s">
+      <c r="A148" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="B148" s="34"/>
+      <c r="B148" s="43"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="56" t="s">
+      <c r="E148" s="36" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="55" t="s">
+      <c r="A149" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B149" s="34"/>
+      <c r="B149" s="43"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="56" t="s">
+      <c r="E149" s="36" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="55" t="s">
+      <c r="A150" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B150" s="34"/>
+      <c r="B150" s="43"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="56" t="s">
+      <c r="E150" s="36" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="55" t="s">
+      <c r="A151" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B151" s="34"/>
+      <c r="B151" s="43"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="56" t="s">
+      <c r="E151" s="36" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="55" t="s">
+      <c r="A152" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B152" s="34"/>
+      <c r="B152" s="43"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="56" t="s">
+      <c r="E152" s="36" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="55" t="s">
+      <c r="A153" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B153" s="34"/>
+      <c r="B153" s="43"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="56" t="s">
+      <c r="E153" s="36" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="55" t="s">
+      <c r="A154" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B154" s="34"/>
+      <c r="B154" s="43"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="56" t="s">
+      <c r="E154" s="36" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="55" t="s">
+      <c r="A155" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="B155" s="34"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="56" t="s">
+      <c r="E155" s="36" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="55" t="s">
+      <c r="A156" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="B156" s="34"/>
+      <c r="B156" s="43"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="56" t="s">
+      <c r="E156" s="36" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="58" t="s">
+      <c r="A157" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="B157" s="34"/>
+      <c r="B157" s="43"/>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
-      <c r="E157" s="59" t="s">
+      <c r="E157" s="39" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="60"/>
-      <c r="B158" s="61"/>
-      <c r="C158" s="61"/>
-      <c r="D158" s="61"/>
-      <c r="E158" s="62"/>
+      <c r="A158" s="40"/>
+      <c r="B158" s="41"/>
+      <c r="C158" s="41"/>
+      <c r="D158" s="41"/>
+      <c r="E158" s="42"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="12"/>
-      <c r="B159" s="34" t="s">
+      <c r="A159" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B159" s="43" t="s">
         <v>233</v>
       </c>
       <c r="C159" s="12"/>
       <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
+      <c r="E159" s="13" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="4"/>
-      <c r="B160" s="34"/>
+      <c r="A160" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B160" s="43"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
+      <c r="E160" s="5" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="4"/>
-      <c r="B161" s="34"/>
+      <c r="A161" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B161" s="43"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
+      <c r="E161" s="5" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="4"/>
-      <c r="B162" s="34"/>
+      <c r="A162" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B162" s="43"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
-      <c r="E162" s="4"/>
+      <c r="E162" s="5" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="4"/>
-      <c r="B163" s="34"/>
+      <c r="A163" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B163" s="43"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
+      <c r="E163" s="5" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="4"/>
-      <c r="B164" s="34"/>
+      <c r="A164" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B164" s="43"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
+      <c r="E164" s="5" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="4"/>
-      <c r="B165" s="34"/>
+      <c r="A165" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B165" s="43"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
+      <c r="E165" s="5" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="4"/>
-      <c r="B166" s="34"/>
+      <c r="A166" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B166" s="43"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
+      <c r="E166" s="5" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="4"/>
-      <c r="B167" s="34"/>
+      <c r="A167" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B167" s="43"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
+      <c r="E167" s="5" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="4"/>
-      <c r="B168" s="34"/>
+      <c r="A168" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B168" s="43"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
+      <c r="E168" s="5" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="4"/>
-      <c r="B169" s="34"/>
+      <c r="A169" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B169" s="43"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
-      <c r="E169" s="4"/>
+      <c r="E169" s="5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
-      <c r="B170" s="34"/>
+      <c r="B170" s="43"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
-      <c r="B171" s="34"/>
+      <c r="B171" s="43"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="4"/>
-      <c r="B172" s="34"/>
+      <c r="A172" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B172" s="43"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
+      <c r="E172" s="5" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="4"/>
-      <c r="B173" s="34"/>
+      <c r="A173" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B173" s="43"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
+      <c r="E173" s="5" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="4"/>
-      <c r="B174" s="34"/>
+      <c r="A174" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B174" s="43"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
+      <c r="E174" s="5" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="4"/>
-      <c r="B175" s="34"/>
+      <c r="A175" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B175" s="43"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
+      <c r="E175" s="5" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="4"/>
-      <c r="B176" s="34"/>
+      <c r="A176" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B176" s="43"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
+      <c r="E176" s="5" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="4"/>
-      <c r="B177" s="34"/>
+      <c r="A177" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B177" s="43"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
-      <c r="E177" s="4"/>
+      <c r="E177" s="5" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="4"/>
-      <c r="B178" s="34"/>
+      <c r="A178" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B178" s="43"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
+      <c r="E178" s="5" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="4"/>
-      <c r="B179" s="34"/>
+      <c r="A179" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B179" s="43"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="4"/>
-      <c r="B180" s="34"/>
+      <c r="A180" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B180" s="43"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
+      <c r="E180" s="5" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="4"/>
-      <c r="B181" s="34"/>
+      <c r="A181" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B181" s="43"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
+      <c r="E181" s="5" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="4"/>
-      <c r="B182" s="34"/>
+      <c r="A182" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B182" s="43"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
+      <c r="E182" s="5" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="4"/>
-      <c r="B183" s="34"/>
+      <c r="A183" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B183" s="43"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
+      <c r="E183" s="5" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
-      <c r="B184" s="34"/>
+      <c r="B184" s="43"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="4"/>
-      <c r="B185" s="35"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
+    <row r="185" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="11"/>
+      <c r="B185" s="43"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="11"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="40"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="41"/>
+      <c r="D186" s="41"/>
+      <c r="E186" s="42"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="12"/>
+      <c r="B187" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="4"/>
+      <c r="B188" s="43"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="4"/>
+      <c r="B189" s="43"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="4"/>
+      <c r="B190" s="43"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="4"/>
+      <c r="B191" s="43"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="4"/>
+      <c r="B192" s="43"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="4"/>
+      <c r="B193" s="43"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="4"/>
+      <c r="B194" s="43"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="4"/>
+      <c r="B195" s="43"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="4"/>
+      <c r="B196" s="43"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="4"/>
+      <c r="B197" s="43"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="4"/>
+      <c r="B198" s="43"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="4"/>
+      <c r="B199" s="43"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="4"/>
+      <c r="B200" s="43"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="4"/>
+      <c r="B201" s="43"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="4"/>
+      <c r="B202" s="43"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="4"/>
+      <c r="B203" s="43"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="4"/>
+      <c r="B204" s="43"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="4"/>
+      <c r="B205" s="43"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="4"/>
+      <c r="B206" s="43"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="4"/>
+      <c r="B207" s="44"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="19">
+    <mergeCell ref="B187:B207"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B14:B26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B27:B63"/>
     <mergeCell ref="B159:B185"/>
     <mergeCell ref="A64:E64"/>
     <mergeCell ref="A13:E13"/>
@@ -3615,12 +4003,6 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B14:B26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B27:B63"/>
     <mergeCell ref="B65:B94"/>
     <mergeCell ref="B96:B127"/>
     <mergeCell ref="A128:E128"/>
@@ -3735,8 +4117,30 @@
     <hyperlink ref="E155" r:id="rId105" xr:uid="{6479C96B-E5F3-470D-928D-AAC21750DEA6}"/>
     <hyperlink ref="E156" r:id="rId106" xr:uid="{5074A131-6CC7-4B85-825E-DD494E8AB36F}"/>
     <hyperlink ref="E157" r:id="rId107" xr:uid="{2E299E4A-4D76-4EBC-8B0F-D03EFE3096C2}"/>
+    <hyperlink ref="E159" r:id="rId108" xr:uid="{807302E1-CA63-4AE7-8609-8F5975D723F7}"/>
+    <hyperlink ref="E160" r:id="rId109" xr:uid="{0B154A6F-13FF-4709-B222-B8B1F34B84CC}"/>
+    <hyperlink ref="E161" r:id="rId110" xr:uid="{A2D70487-8FB0-4402-92CD-E37699CBD9FA}"/>
+    <hyperlink ref="E162" r:id="rId111" xr:uid="{2D97420A-66CD-4C37-8CFB-25FA76AEF379}"/>
+    <hyperlink ref="E163" r:id="rId112" xr:uid="{3CD2E2EC-DE9F-44B2-A890-0523E4C56526}"/>
+    <hyperlink ref="E165" r:id="rId113" xr:uid="{D925E5B1-0696-4BF9-8A3D-4136244BADDB}"/>
+    <hyperlink ref="E164" r:id="rId114" xr:uid="{F28E4BDA-5523-440B-B8F8-F66CBC7F95EB}"/>
+    <hyperlink ref="E166" r:id="rId115" xr:uid="{F3E6B48B-D264-43CD-BF25-39F9569C1E3D}"/>
+    <hyperlink ref="E167" r:id="rId116" xr:uid="{8CB2F224-6EA9-4C3B-A81D-BA872A1A85A3}"/>
+    <hyperlink ref="E168" r:id="rId117" xr:uid="{4A36FB76-5498-4C0C-A708-497AE2672D9E}"/>
+    <hyperlink ref="E169" r:id="rId118" xr:uid="{B40CF225-B6FC-44C4-9252-27F4CED1C3CA}"/>
+    <hyperlink ref="E172" r:id="rId119" xr:uid="{29C34B92-A882-48CF-8C28-569D8881FFCE}"/>
+    <hyperlink ref="E173" r:id="rId120" xr:uid="{0B039FF2-D7D1-47CA-AA91-D06A5BFA1263}"/>
+    <hyperlink ref="E174" r:id="rId121" xr:uid="{3EA5D2A5-847D-47FC-9DDB-C9D1C9120A58}"/>
+    <hyperlink ref="E175" r:id="rId122" xr:uid="{266DBE8F-3C9B-4FE3-A349-F15F50824A48}"/>
+    <hyperlink ref="E176" r:id="rId123" xr:uid="{7267D5E7-D784-4C0F-B6B8-3242B5C168E5}"/>
+    <hyperlink ref="E177" r:id="rId124" xr:uid="{9E31AAA5-FF16-4B79-98E2-2031B6891112}"/>
+    <hyperlink ref="E178" r:id="rId125" xr:uid="{75EF242F-7EE5-4398-B9D9-14C63553C599}"/>
+    <hyperlink ref="E180" r:id="rId126" xr:uid="{37A01708-744B-4E60-9332-C9ED0DD9FFF5}"/>
+    <hyperlink ref="E181" r:id="rId127" xr:uid="{544F29EA-83A4-44F5-85EE-F134CFDC4BAE}"/>
+    <hyperlink ref="E182" r:id="rId128" xr:uid="{D930B657-6312-4139-AF56-045C5740F47B}"/>
+    <hyperlink ref="E183" r:id="rId129" xr:uid="{1A6EE5CB-C77C-4F6E-A3B4-B99906FF0F29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId108"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId130"/>
 </worksheet>
 </file>